--- a/ProductBacklog/FYF - Product Backlog.xlsx
+++ b/ProductBacklog/FYF - Product Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
   <si>
     <t>Id</t>
   </si>
@@ -72,6 +72,33 @@
     <t>Use it on my profile Avatar</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Picture with clear face </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">must </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>be required</t>
+    </r>
+  </si>
+  <si>
     <t>Add another user to friendlist</t>
   </si>
   <si>
@@ -196,13 +223,91 @@
   </si>
   <si>
     <t>Quickly find the right message</t>
+  </si>
+  <si>
+    <t>Block/Delete another user</t>
+  </si>
+  <si>
+    <t>Not interact with them if I choose not to</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Application feedback notifications for user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find out what needs to be worked on </t>
+  </si>
+  <si>
+    <t>Nicoas</t>
+  </si>
+  <si>
+    <t>Hide personal information from public</t>
+  </si>
+  <si>
+    <t>Only have it showing for friends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application customization </t>
+  </si>
+  <si>
+    <t>Change default white to black theme</t>
+  </si>
+  <si>
+    <t>Web can also have dark and white theme</t>
+  </si>
+  <si>
+    <t>Fast sign up with facebook login</t>
+  </si>
+  <si>
+    <t>Faster/easier sign up</t>
+  </si>
+  <si>
+    <t>In app subscription</t>
+  </si>
+  <si>
+    <t>give users exclusive features</t>
+  </si>
+  <si>
+    <t>Don't know if we want straight revenue from this or ads. But like a small membership $5 a month example</t>
+  </si>
+  <si>
+    <t>Referal program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have more users for more revenue </t>
+  </si>
+  <si>
+    <t>Report another user</t>
+  </si>
+  <si>
+    <t>To have them reviewed for negative behaviour</t>
+  </si>
+  <si>
+    <t>Refund/Accidental subscription charge</t>
+  </si>
+  <si>
+    <t>Have a refund for something I didn't want</t>
+  </si>
+  <si>
+    <t>Mute group chat notifications/Only recieve when @ directly</t>
+  </si>
+  <si>
+    <t>Have notification balance</t>
+  </si>
+  <si>
+    <t>Fast sign up with google account</t>
+  </si>
+  <si>
+    <t>Yaroslav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -220,16 +325,27 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -252,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -260,6 +376,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -281,6 +400,12 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -288,7 +413,7 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -349,16 +474,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F51" displayName="Table_1" id="1">
-  <tableColumns count="6">
-    <tableColumn name="Id" id="1"/>
-    <tableColumn name="As a" id="2"/>
-    <tableColumn name="I want to" id="3"/>
-    <tableColumn name="So that I can" id="4"/>
-    <tableColumn name="Author(so we can discuss later)" id="5"/>
-    <tableColumn name="Comments" id="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:Z51" displayName="Table_1" id="1">
+  <tableColumns count="26">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+    <tableColumn name="Column7" id="7"/>
+    <tableColumn name="Column8" id="8"/>
+    <tableColumn name="Column9" id="9"/>
+    <tableColumn name="Column10" id="10"/>
+    <tableColumn name="Column11" id="11"/>
+    <tableColumn name="Column12" id="12"/>
+    <tableColumn name="Column13" id="13"/>
+    <tableColumn name="Column14" id="14"/>
+    <tableColumn name="Column15" id="15"/>
+    <tableColumn name="Column16" id="16"/>
+    <tableColumn name="Column17" id="17"/>
+    <tableColumn name="Column18" id="18"/>
+    <tableColumn name="Column19" id="19"/>
+    <tableColumn name="Column20" id="20"/>
+    <tableColumn name="Column21" id="21"/>
+    <tableColumn name="Column22" id="22"/>
+    <tableColumn name="Column23" id="23"/>
+    <tableColumn name="Column24" id="24"/>
+    <tableColumn name="Column25" id="25"/>
+    <tableColumn name="Column26" id="26"/>
   </tableColumns>
   <tableStyleInfo name="Sheet1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
 </table>
 </file>
 
@@ -593,3531 +743,4645 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1.0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2.0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3.0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4.0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5.0</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6.0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7.0</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8.0</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9.0</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10.0</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11.0</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12.0</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="F13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13.0</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14.0</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15.0</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="9"/>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16.0</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="9"/>
+      <c r="D17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>17.0</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="9"/>
+      <c r="D18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>18.0</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="9"/>
+      <c r="D19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
     </row>
     <row r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>19.0</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="9"/>
+      <c r="D20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
     </row>
     <row r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>20.0</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="9"/>
+      <c r="D21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
     </row>
     <row r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>21.0</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="9"/>
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
     </row>
     <row r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>22.0</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="9"/>
+      <c r="D23" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
     </row>
     <row r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>23.0</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
     </row>
     <row r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>24.0</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
     </row>
     <row r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>25.0</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
     </row>
     <row r="27">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>26.0</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
     </row>
     <row r="28">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>27.0</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
+      <c r="B28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
     </row>
     <row r="29">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>28.0</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>29.0</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
     </row>
     <row r="31">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>30.0</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
     </row>
     <row r="32">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>31.0</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="9"/>
+      <c r="B32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
     </row>
     <row r="33">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>32.0</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="9"/>
+      <c r="B33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
     </row>
     <row r="34">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>33.0</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="9"/>
+      <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
     </row>
     <row r="35">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>34.0</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="9"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
     </row>
     <row r="36">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>35.0</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="9"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
     </row>
     <row r="37">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>36.0</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="9"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
     </row>
     <row r="38">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>37.0</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="9"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
     </row>
     <row r="39">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>38.0</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="9"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
     </row>
     <row r="40">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>39.0</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="9"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
     </row>
     <row r="41">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>40.0</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="9"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
     </row>
     <row r="42">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>41.0</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="9"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
     </row>
     <row r="43">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>42.0</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="9"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
     </row>
     <row r="44">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43.0</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
     </row>
     <row r="45">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>44.0</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="9"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
     </row>
     <row r="46">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>45.0</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="9"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
     </row>
     <row r="47">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>46.0</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="9"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
     </row>
     <row r="48">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>47.0</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="9"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
     </row>
     <row r="49">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>48.0</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="9"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
     </row>
     <row r="50">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>49.0</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="9"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
+      <c r="Y50" s="10"/>
+      <c r="Z50" s="10"/>
     </row>
     <row r="51">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>50.0</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="9"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
     </row>
     <row r="52">
-      <c r="B52" s="13"/>
+      <c r="B52" s="16"/>
     </row>
     <row r="53">
-      <c r="B53" s="13"/>
+      <c r="B53" s="16"/>
     </row>
     <row r="54">
-      <c r="B54" s="13"/>
+      <c r="B54" s="16"/>
     </row>
     <row r="55">
-      <c r="B55" s="13"/>
+      <c r="B55" s="16"/>
     </row>
     <row r="56">
-      <c r="B56" s="13"/>
+      <c r="B56" s="16"/>
     </row>
     <row r="57">
-      <c r="B57" s="13"/>
+      <c r="B57" s="16"/>
     </row>
     <row r="58">
-      <c r="B58" s="13"/>
+      <c r="B58" s="16"/>
     </row>
     <row r="59">
-      <c r="B59" s="13"/>
+      <c r="B59" s="16"/>
     </row>
     <row r="60">
-      <c r="B60" s="13"/>
+      <c r="B60" s="16"/>
     </row>
     <row r="61">
-      <c r="B61" s="13"/>
+      <c r="B61" s="16"/>
     </row>
     <row r="62">
-      <c r="B62" s="13"/>
+      <c r="B62" s="16"/>
     </row>
     <row r="63">
-      <c r="B63" s="13"/>
+      <c r="B63" s="16"/>
     </row>
     <row r="64">
-      <c r="B64" s="13"/>
+      <c r="B64" s="16"/>
     </row>
     <row r="65">
-      <c r="B65" s="13"/>
+      <c r="B65" s="16"/>
     </row>
     <row r="66">
-      <c r="B66" s="13"/>
+      <c r="B66" s="16"/>
     </row>
     <row r="67">
-      <c r="B67" s="13"/>
+      <c r="B67" s="16"/>
     </row>
     <row r="68">
-      <c r="B68" s="13"/>
+      <c r="B68" s="16"/>
     </row>
     <row r="69">
-      <c r="B69" s="13"/>
+      <c r="B69" s="16"/>
     </row>
     <row r="70">
-      <c r="B70" s="13"/>
+      <c r="B70" s="16"/>
     </row>
     <row r="71">
-      <c r="B71" s="13"/>
+      <c r="B71" s="16"/>
     </row>
     <row r="72">
-      <c r="B72" s="13"/>
+      <c r="B72" s="16"/>
     </row>
     <row r="73">
-      <c r="B73" s="13"/>
+      <c r="B73" s="16"/>
     </row>
     <row r="74">
-      <c r="B74" s="13"/>
+      <c r="B74" s="16"/>
     </row>
     <row r="75">
-      <c r="B75" s="13"/>
+      <c r="B75" s="16"/>
     </row>
     <row r="76">
-      <c r="B76" s="13"/>
+      <c r="B76" s="16"/>
     </row>
     <row r="77">
-      <c r="B77" s="13"/>
+      <c r="B77" s="16"/>
     </row>
     <row r="78">
-      <c r="B78" s="13"/>
+      <c r="B78" s="16"/>
     </row>
     <row r="79">
-      <c r="B79" s="13"/>
+      <c r="B79" s="16"/>
     </row>
     <row r="80">
-      <c r="B80" s="13"/>
+      <c r="B80" s="16"/>
     </row>
     <row r="81">
-      <c r="B81" s="13"/>
+      <c r="B81" s="16"/>
     </row>
     <row r="82">
-      <c r="B82" s="13"/>
+      <c r="B82" s="16"/>
     </row>
     <row r="83">
-      <c r="B83" s="13"/>
+      <c r="B83" s="16"/>
     </row>
     <row r="84">
-      <c r="B84" s="13"/>
+      <c r="B84" s="16"/>
     </row>
     <row r="85">
-      <c r="B85" s="13"/>
+      <c r="B85" s="16"/>
     </row>
     <row r="86">
-      <c r="B86" s="13"/>
+      <c r="B86" s="16"/>
     </row>
     <row r="87">
-      <c r="B87" s="13"/>
+      <c r="B87" s="16"/>
     </row>
     <row r="88">
-      <c r="B88" s="13"/>
+      <c r="B88" s="16"/>
     </row>
     <row r="89">
-      <c r="B89" s="13"/>
+      <c r="B89" s="16"/>
     </row>
     <row r="90">
-      <c r="B90" s="13"/>
+      <c r="B90" s="16"/>
     </row>
     <row r="91">
-      <c r="B91" s="13"/>
+      <c r="B91" s="16"/>
     </row>
     <row r="92">
-      <c r="B92" s="13"/>
+      <c r="B92" s="16"/>
     </row>
     <row r="93">
-      <c r="B93" s="13"/>
+      <c r="B93" s="16"/>
     </row>
     <row r="94">
-      <c r="B94" s="13"/>
+      <c r="B94" s="16"/>
     </row>
     <row r="95">
-      <c r="B95" s="13"/>
+      <c r="B95" s="16"/>
     </row>
     <row r="96">
-      <c r="B96" s="13"/>
+      <c r="B96" s="16"/>
     </row>
     <row r="97">
-      <c r="B97" s="13"/>
+      <c r="B97" s="16"/>
     </row>
     <row r="98">
-      <c r="B98" s="13"/>
+      <c r="B98" s="16"/>
     </row>
     <row r="99">
-      <c r="B99" s="13"/>
+      <c r="B99" s="16"/>
     </row>
     <row r="100">
-      <c r="B100" s="13"/>
+      <c r="B100" s="16"/>
     </row>
     <row r="101">
-      <c r="B101" s="13"/>
+      <c r="B101" s="16"/>
     </row>
     <row r="102">
-      <c r="B102" s="13"/>
+      <c r="B102" s="16"/>
     </row>
     <row r="103">
-      <c r="B103" s="13"/>
+      <c r="B103" s="16"/>
     </row>
     <row r="104">
-      <c r="B104" s="13"/>
+      <c r="B104" s="16"/>
     </row>
     <row r="105">
-      <c r="B105" s="13"/>
+      <c r="B105" s="16"/>
     </row>
     <row r="106">
-      <c r="B106" s="13"/>
+      <c r="B106" s="16"/>
     </row>
     <row r="107">
-      <c r="B107" s="13"/>
+      <c r="B107" s="16"/>
     </row>
     <row r="108">
-      <c r="B108" s="13"/>
+      <c r="B108" s="16"/>
     </row>
     <row r="109">
-      <c r="B109" s="13"/>
+      <c r="B109" s="16"/>
     </row>
     <row r="110">
-      <c r="B110" s="13"/>
+      <c r="B110" s="16"/>
     </row>
     <row r="111">
-      <c r="B111" s="13"/>
+      <c r="B111" s="16"/>
     </row>
     <row r="112">
-      <c r="B112" s="13"/>
+      <c r="B112" s="16"/>
     </row>
     <row r="113">
-      <c r="B113" s="13"/>
+      <c r="B113" s="16"/>
     </row>
     <row r="114">
-      <c r="B114" s="13"/>
+      <c r="B114" s="16"/>
     </row>
     <row r="115">
-      <c r="B115" s="13"/>
+      <c r="B115" s="16"/>
     </row>
     <row r="116">
-      <c r="B116" s="13"/>
+      <c r="B116" s="16"/>
     </row>
     <row r="117">
-      <c r="B117" s="13"/>
+      <c r="B117" s="16"/>
     </row>
     <row r="118">
-      <c r="B118" s="13"/>
+      <c r="B118" s="16"/>
     </row>
     <row r="119">
-      <c r="B119" s="13"/>
+      <c r="B119" s="16"/>
     </row>
     <row r="120">
-      <c r="B120" s="13"/>
+      <c r="B120" s="16"/>
     </row>
     <row r="121">
-      <c r="B121" s="13"/>
+      <c r="B121" s="16"/>
     </row>
     <row r="122">
-      <c r="B122" s="13"/>
+      <c r="B122" s="16"/>
     </row>
     <row r="123">
-      <c r="B123" s="13"/>
+      <c r="B123" s="16"/>
     </row>
     <row r="124">
-      <c r="B124" s="13"/>
+      <c r="B124" s="16"/>
     </row>
     <row r="125">
-      <c r="B125" s="13"/>
+      <c r="B125" s="16"/>
     </row>
     <row r="126">
-      <c r="B126" s="13"/>
+      <c r="B126" s="16"/>
     </row>
     <row r="127">
-      <c r="B127" s="13"/>
+      <c r="B127" s="16"/>
     </row>
     <row r="128">
-      <c r="B128" s="13"/>
+      <c r="B128" s="16"/>
     </row>
     <row r="129">
-      <c r="B129" s="13"/>
+      <c r="B129" s="16"/>
     </row>
     <row r="130">
-      <c r="B130" s="13"/>
+      <c r="B130" s="16"/>
     </row>
     <row r="131">
-      <c r="B131" s="13"/>
+      <c r="B131" s="16"/>
     </row>
     <row r="132">
-      <c r="B132" s="13"/>
+      <c r="B132" s="16"/>
     </row>
     <row r="133">
-      <c r="B133" s="13"/>
+      <c r="B133" s="16"/>
     </row>
     <row r="134">
-      <c r="B134" s="13"/>
+      <c r="B134" s="16"/>
     </row>
     <row r="135">
-      <c r="B135" s="13"/>
+      <c r="B135" s="16"/>
     </row>
     <row r="136">
-      <c r="B136" s="13"/>
+      <c r="B136" s="16"/>
     </row>
     <row r="137">
-      <c r="B137" s="13"/>
+      <c r="B137" s="16"/>
     </row>
     <row r="138">
-      <c r="B138" s="13"/>
+      <c r="B138" s="16"/>
     </row>
     <row r="139">
-      <c r="B139" s="13"/>
+      <c r="B139" s="16"/>
     </row>
     <row r="140">
-      <c r="B140" s="13"/>
+      <c r="B140" s="16"/>
     </row>
     <row r="141">
-      <c r="B141" s="13"/>
+      <c r="B141" s="16"/>
     </row>
     <row r="142">
-      <c r="B142" s="13"/>
+      <c r="B142" s="16"/>
     </row>
     <row r="143">
-      <c r="B143" s="13"/>
+      <c r="B143" s="16"/>
     </row>
     <row r="144">
-      <c r="B144" s="13"/>
+      <c r="B144" s="16"/>
     </row>
     <row r="145">
-      <c r="B145" s="13"/>
+      <c r="B145" s="16"/>
     </row>
     <row r="146">
-      <c r="B146" s="13"/>
+      <c r="B146" s="16"/>
     </row>
     <row r="147">
-      <c r="B147" s="13"/>
+      <c r="B147" s="16"/>
     </row>
     <row r="148">
-      <c r="B148" s="13"/>
+      <c r="B148" s="16"/>
     </row>
     <row r="149">
-      <c r="B149" s="13"/>
+      <c r="B149" s="16"/>
     </row>
     <row r="150">
-      <c r="B150" s="13"/>
+      <c r="B150" s="16"/>
     </row>
     <row r="151">
-      <c r="B151" s="13"/>
+      <c r="B151" s="16"/>
     </row>
     <row r="152">
-      <c r="B152" s="13"/>
+      <c r="B152" s="16"/>
     </row>
     <row r="153">
-      <c r="B153" s="13"/>
+      <c r="B153" s="16"/>
     </row>
     <row r="154">
-      <c r="B154" s="13"/>
+      <c r="B154" s="16"/>
     </row>
     <row r="155">
-      <c r="B155" s="13"/>
+      <c r="B155" s="16"/>
     </row>
     <row r="156">
-      <c r="B156" s="13"/>
+      <c r="B156" s="16"/>
     </row>
     <row r="157">
-      <c r="B157" s="13"/>
+      <c r="B157" s="16"/>
     </row>
     <row r="158">
-      <c r="B158" s="13"/>
+      <c r="B158" s="16"/>
     </row>
     <row r="159">
-      <c r="B159" s="13"/>
+      <c r="B159" s="16"/>
     </row>
     <row r="160">
-      <c r="B160" s="13"/>
+      <c r="B160" s="16"/>
     </row>
     <row r="161">
-      <c r="B161" s="13"/>
+      <c r="B161" s="16"/>
     </row>
     <row r="162">
-      <c r="B162" s="13"/>
+      <c r="B162" s="16"/>
     </row>
     <row r="163">
-      <c r="B163" s="13"/>
+      <c r="B163" s="16"/>
     </row>
     <row r="164">
-      <c r="B164" s="13"/>
+      <c r="B164" s="16"/>
     </row>
     <row r="165">
-      <c r="B165" s="13"/>
+      <c r="B165" s="16"/>
     </row>
     <row r="166">
-      <c r="B166" s="13"/>
+      <c r="B166" s="16"/>
     </row>
     <row r="167">
-      <c r="B167" s="13"/>
+      <c r="B167" s="16"/>
     </row>
     <row r="168">
-      <c r="B168" s="13"/>
+      <c r="B168" s="16"/>
     </row>
     <row r="169">
-      <c r="B169" s="13"/>
+      <c r="B169" s="16"/>
     </row>
     <row r="170">
-      <c r="B170" s="13"/>
+      <c r="B170" s="16"/>
     </row>
     <row r="171">
-      <c r="B171" s="13"/>
+      <c r="B171" s="16"/>
     </row>
     <row r="172">
-      <c r="B172" s="13"/>
+      <c r="B172" s="16"/>
     </row>
     <row r="173">
-      <c r="B173" s="13"/>
+      <c r="B173" s="16"/>
     </row>
     <row r="174">
-      <c r="B174" s="13"/>
+      <c r="B174" s="16"/>
     </row>
     <row r="175">
-      <c r="B175" s="13"/>
+      <c r="B175" s="16"/>
     </row>
     <row r="176">
-      <c r="B176" s="13"/>
+      <c r="B176" s="16"/>
     </row>
     <row r="177">
-      <c r="B177" s="13"/>
+      <c r="B177" s="16"/>
     </row>
     <row r="178">
-      <c r="B178" s="13"/>
+      <c r="B178" s="16"/>
     </row>
     <row r="179">
-      <c r="B179" s="13"/>
+      <c r="B179" s="16"/>
     </row>
     <row r="180">
-      <c r="B180" s="13"/>
+      <c r="B180" s="16"/>
     </row>
     <row r="181">
-      <c r="B181" s="13"/>
+      <c r="B181" s="16"/>
     </row>
     <row r="182">
-      <c r="B182" s="13"/>
+      <c r="B182" s="16"/>
     </row>
     <row r="183">
-      <c r="B183" s="13"/>
+      <c r="B183" s="16"/>
     </row>
     <row r="184">
-      <c r="B184" s="13"/>
+      <c r="B184" s="16"/>
     </row>
     <row r="185">
-      <c r="B185" s="13"/>
+      <c r="B185" s="16"/>
     </row>
     <row r="186">
-      <c r="B186" s="13"/>
+      <c r="B186" s="16"/>
     </row>
     <row r="187">
-      <c r="B187" s="13"/>
+      <c r="B187" s="16"/>
     </row>
     <row r="188">
-      <c r="B188" s="13"/>
+      <c r="B188" s="16"/>
     </row>
     <row r="189">
-      <c r="B189" s="13"/>
+      <c r="B189" s="16"/>
     </row>
     <row r="190">
-      <c r="B190" s="13"/>
+      <c r="B190" s="16"/>
     </row>
     <row r="191">
-      <c r="B191" s="13"/>
+      <c r="B191" s="16"/>
     </row>
     <row r="192">
-      <c r="B192" s="13"/>
+      <c r="B192" s="16"/>
     </row>
     <row r="193">
-      <c r="B193" s="13"/>
+      <c r="B193" s="16"/>
     </row>
     <row r="194">
-      <c r="B194" s="13"/>
+      <c r="B194" s="16"/>
     </row>
     <row r="195">
-      <c r="B195" s="13"/>
+      <c r="B195" s="16"/>
     </row>
     <row r="196">
-      <c r="B196" s="13"/>
+      <c r="B196" s="16"/>
     </row>
     <row r="197">
-      <c r="B197" s="13"/>
+      <c r="B197" s="16"/>
     </row>
     <row r="198">
-      <c r="B198" s="13"/>
+      <c r="B198" s="16"/>
     </row>
     <row r="199">
-      <c r="B199" s="13"/>
+      <c r="B199" s="16"/>
     </row>
     <row r="200">
-      <c r="B200" s="13"/>
+      <c r="B200" s="16"/>
     </row>
     <row r="201">
-      <c r="B201" s="13"/>
+      <c r="B201" s="16"/>
     </row>
     <row r="202">
-      <c r="B202" s="13"/>
+      <c r="B202" s="16"/>
     </row>
     <row r="203">
-      <c r="B203" s="13"/>
+      <c r="B203" s="16"/>
     </row>
     <row r="204">
-      <c r="B204" s="13"/>
+      <c r="B204" s="16"/>
     </row>
     <row r="205">
-      <c r="B205" s="13"/>
+      <c r="B205" s="16"/>
     </row>
     <row r="206">
-      <c r="B206" s="13"/>
+      <c r="B206" s="16"/>
     </row>
     <row r="207">
-      <c r="B207" s="13"/>
+      <c r="B207" s="16"/>
     </row>
     <row r="208">
-      <c r="B208" s="13"/>
+      <c r="B208" s="16"/>
     </row>
     <row r="209">
-      <c r="B209" s="13"/>
+      <c r="B209" s="16"/>
     </row>
     <row r="210">
-      <c r="B210" s="13"/>
+      <c r="B210" s="16"/>
     </row>
     <row r="211">
-      <c r="B211" s="13"/>
+      <c r="B211" s="16"/>
     </row>
     <row r="212">
-      <c r="B212" s="13"/>
+      <c r="B212" s="16"/>
     </row>
     <row r="213">
-      <c r="B213" s="13"/>
+      <c r="B213" s="16"/>
     </row>
     <row r="214">
-      <c r="B214" s="13"/>
+      <c r="B214" s="16"/>
     </row>
     <row r="215">
-      <c r="B215" s="13"/>
+      <c r="B215" s="16"/>
     </row>
     <row r="216">
-      <c r="B216" s="13"/>
+      <c r="B216" s="16"/>
     </row>
     <row r="217">
-      <c r="B217" s="13"/>
+      <c r="B217" s="16"/>
     </row>
     <row r="218">
-      <c r="B218" s="13"/>
+      <c r="B218" s="16"/>
     </row>
     <row r="219">
-      <c r="B219" s="13"/>
+      <c r="B219" s="16"/>
     </row>
     <row r="220">
-      <c r="B220" s="13"/>
+      <c r="B220" s="16"/>
     </row>
     <row r="221">
-      <c r="B221" s="13"/>
+      <c r="B221" s="16"/>
     </row>
     <row r="222">
-      <c r="B222" s="13"/>
+      <c r="B222" s="16"/>
     </row>
     <row r="223">
-      <c r="B223" s="13"/>
+      <c r="B223" s="16"/>
     </row>
     <row r="224">
-      <c r="B224" s="13"/>
+      <c r="B224" s="16"/>
     </row>
     <row r="225">
-      <c r="B225" s="13"/>
+      <c r="B225" s="16"/>
     </row>
     <row r="226">
-      <c r="B226" s="13"/>
+      <c r="B226" s="16"/>
     </row>
     <row r="227">
-      <c r="B227" s="13"/>
+      <c r="B227" s="16"/>
     </row>
     <row r="228">
-      <c r="B228" s="13"/>
+      <c r="B228" s="16"/>
     </row>
     <row r="229">
-      <c r="B229" s="13"/>
+      <c r="B229" s="16"/>
     </row>
     <row r="230">
-      <c r="B230" s="13"/>
+      <c r="B230" s="16"/>
     </row>
     <row r="231">
-      <c r="B231" s="13"/>
+      <c r="B231" s="16"/>
     </row>
     <row r="232">
-      <c r="B232" s="13"/>
+      <c r="B232" s="16"/>
     </row>
     <row r="233">
-      <c r="B233" s="13"/>
+      <c r="B233" s="16"/>
     </row>
     <row r="234">
-      <c r="B234" s="13"/>
+      <c r="B234" s="16"/>
     </row>
     <row r="235">
-      <c r="B235" s="13"/>
+      <c r="B235" s="16"/>
     </row>
     <row r="236">
-      <c r="B236" s="13"/>
+      <c r="B236" s="16"/>
     </row>
     <row r="237">
-      <c r="B237" s="13"/>
+      <c r="B237" s="16"/>
     </row>
     <row r="238">
-      <c r="B238" s="13"/>
+      <c r="B238" s="16"/>
     </row>
     <row r="239">
-      <c r="B239" s="13"/>
+      <c r="B239" s="16"/>
     </row>
     <row r="240">
-      <c r="B240" s="13"/>
+      <c r="B240" s="16"/>
     </row>
     <row r="241">
-      <c r="B241" s="13"/>
+      <c r="B241" s="16"/>
     </row>
     <row r="242">
-      <c r="B242" s="13"/>
+      <c r="B242" s="16"/>
     </row>
     <row r="243">
-      <c r="B243" s="13"/>
+      <c r="B243" s="16"/>
     </row>
     <row r="244">
-      <c r="B244" s="13"/>
+      <c r="B244" s="16"/>
     </row>
     <row r="245">
-      <c r="B245" s="13"/>
+      <c r="B245" s="16"/>
     </row>
     <row r="246">
-      <c r="B246" s="13"/>
+      <c r="B246" s="16"/>
     </row>
     <row r="247">
-      <c r="B247" s="13"/>
+      <c r="B247" s="16"/>
     </row>
     <row r="248">
-      <c r="B248" s="13"/>
+      <c r="B248" s="16"/>
     </row>
     <row r="249">
-      <c r="B249" s="13"/>
+      <c r="B249" s="16"/>
     </row>
     <row r="250">
-      <c r="B250" s="13"/>
+      <c r="B250" s="16"/>
     </row>
     <row r="251">
-      <c r="B251" s="13"/>
+      <c r="B251" s="16"/>
     </row>
     <row r="252">
-      <c r="B252" s="13"/>
+      <c r="B252" s="16"/>
     </row>
     <row r="253">
-      <c r="B253" s="13"/>
+      <c r="B253" s="16"/>
     </row>
     <row r="254">
-      <c r="B254" s="13"/>
+      <c r="B254" s="16"/>
     </row>
     <row r="255">
-      <c r="B255" s="13"/>
+      <c r="B255" s="16"/>
     </row>
     <row r="256">
-      <c r="B256" s="13"/>
+      <c r="B256" s="16"/>
     </row>
     <row r="257">
-      <c r="B257" s="13"/>
+      <c r="B257" s="16"/>
     </row>
     <row r="258">
-      <c r="B258" s="13"/>
+      <c r="B258" s="16"/>
     </row>
     <row r="259">
-      <c r="B259" s="13"/>
+      <c r="B259" s="16"/>
     </row>
     <row r="260">
-      <c r="B260" s="13"/>
+      <c r="B260" s="16"/>
     </row>
     <row r="261">
-      <c r="B261" s="13"/>
+      <c r="B261" s="16"/>
     </row>
     <row r="262">
-      <c r="B262" s="13"/>
+      <c r="B262" s="16"/>
     </row>
     <row r="263">
-      <c r="B263" s="13"/>
+      <c r="B263" s="16"/>
     </row>
     <row r="264">
-      <c r="B264" s="13"/>
+      <c r="B264" s="16"/>
     </row>
     <row r="265">
-      <c r="B265" s="13"/>
+      <c r="B265" s="16"/>
     </row>
     <row r="266">
-      <c r="B266" s="13"/>
+      <c r="B266" s="16"/>
     </row>
     <row r="267">
-      <c r="B267" s="13"/>
+      <c r="B267" s="16"/>
     </row>
     <row r="268">
-      <c r="B268" s="13"/>
+      <c r="B268" s="16"/>
     </row>
     <row r="269">
-      <c r="B269" s="13"/>
+      <c r="B269" s="16"/>
     </row>
     <row r="270">
-      <c r="B270" s="13"/>
+      <c r="B270" s="16"/>
     </row>
     <row r="271">
-      <c r="B271" s="13"/>
+      <c r="B271" s="16"/>
     </row>
     <row r="272">
-      <c r="B272" s="13"/>
+      <c r="B272" s="16"/>
     </row>
     <row r="273">
-      <c r="B273" s="13"/>
+      <c r="B273" s="16"/>
     </row>
     <row r="274">
-      <c r="B274" s="13"/>
+      <c r="B274" s="16"/>
     </row>
     <row r="275">
-      <c r="B275" s="13"/>
+      <c r="B275" s="16"/>
     </row>
     <row r="276">
-      <c r="B276" s="13"/>
+      <c r="B276" s="16"/>
     </row>
     <row r="277">
-      <c r="B277" s="13"/>
+      <c r="B277" s="16"/>
     </row>
     <row r="278">
-      <c r="B278" s="13"/>
+      <c r="B278" s="16"/>
     </row>
     <row r="279">
-      <c r="B279" s="13"/>
+      <c r="B279" s="16"/>
     </row>
     <row r="280">
-      <c r="B280" s="13"/>
+      <c r="B280" s="16"/>
     </row>
     <row r="281">
-      <c r="B281" s="13"/>
+      <c r="B281" s="16"/>
     </row>
     <row r="282">
-      <c r="B282" s="13"/>
+      <c r="B282" s="16"/>
     </row>
     <row r="283">
-      <c r="B283" s="13"/>
+      <c r="B283" s="16"/>
     </row>
     <row r="284">
-      <c r="B284" s="13"/>
+      <c r="B284" s="16"/>
     </row>
     <row r="285">
-      <c r="B285" s="13"/>
+      <c r="B285" s="16"/>
     </row>
     <row r="286">
-      <c r="B286" s="13"/>
+      <c r="B286" s="16"/>
     </row>
     <row r="287">
-      <c r="B287" s="13"/>
+      <c r="B287" s="16"/>
     </row>
     <row r="288">
-      <c r="B288" s="13"/>
+      <c r="B288" s="16"/>
     </row>
     <row r="289">
-      <c r="B289" s="13"/>
+      <c r="B289" s="16"/>
     </row>
     <row r="290">
-      <c r="B290" s="13"/>
+      <c r="B290" s="16"/>
     </row>
     <row r="291">
-      <c r="B291" s="13"/>
+      <c r="B291" s="16"/>
     </row>
     <row r="292">
-      <c r="B292" s="13"/>
+      <c r="B292" s="16"/>
     </row>
     <row r="293">
-      <c r="B293" s="13"/>
+      <c r="B293" s="16"/>
     </row>
     <row r="294">
-      <c r="B294" s="13"/>
+      <c r="B294" s="16"/>
     </row>
     <row r="295">
-      <c r="B295" s="13"/>
+      <c r="B295" s="16"/>
     </row>
     <row r="296">
-      <c r="B296" s="13"/>
+      <c r="B296" s="16"/>
     </row>
     <row r="297">
-      <c r="B297" s="13"/>
+      <c r="B297" s="16"/>
     </row>
     <row r="298">
-      <c r="B298" s="13"/>
+      <c r="B298" s="16"/>
     </row>
     <row r="299">
-      <c r="B299" s="13"/>
+      <c r="B299" s="16"/>
     </row>
     <row r="300">
-      <c r="B300" s="13"/>
+      <c r="B300" s="16"/>
     </row>
     <row r="301">
-      <c r="B301" s="13"/>
+      <c r="B301" s="16"/>
     </row>
     <row r="302">
-      <c r="B302" s="13"/>
+      <c r="B302" s="16"/>
     </row>
     <row r="303">
-      <c r="B303" s="13"/>
+      <c r="B303" s="16"/>
     </row>
     <row r="304">
-      <c r="B304" s="13"/>
+      <c r="B304" s="16"/>
     </row>
     <row r="305">
-      <c r="B305" s="13"/>
+      <c r="B305" s="16"/>
     </row>
     <row r="306">
-      <c r="B306" s="13"/>
+      <c r="B306" s="16"/>
     </row>
     <row r="307">
-      <c r="B307" s="13"/>
+      <c r="B307" s="16"/>
     </row>
     <row r="308">
-      <c r="B308" s="13"/>
+      <c r="B308" s="16"/>
     </row>
     <row r="309">
-      <c r="B309" s="13"/>
+      <c r="B309" s="16"/>
     </row>
     <row r="310">
-      <c r="B310" s="13"/>
+      <c r="B310" s="16"/>
     </row>
     <row r="311">
-      <c r="B311" s="13"/>
+      <c r="B311" s="16"/>
     </row>
     <row r="312">
-      <c r="B312" s="13"/>
+      <c r="B312" s="16"/>
     </row>
     <row r="313">
-      <c r="B313" s="13"/>
+      <c r="B313" s="16"/>
     </row>
     <row r="314">
-      <c r="B314" s="13"/>
+      <c r="B314" s="16"/>
     </row>
     <row r="315">
-      <c r="B315" s="13"/>
+      <c r="B315" s="16"/>
     </row>
     <row r="316">
-      <c r="B316" s="13"/>
+      <c r="B316" s="16"/>
     </row>
     <row r="317">
-      <c r="B317" s="13"/>
+      <c r="B317" s="16"/>
     </row>
     <row r="318">
-      <c r="B318" s="13"/>
+      <c r="B318" s="16"/>
     </row>
     <row r="319">
-      <c r="B319" s="13"/>
+      <c r="B319" s="16"/>
     </row>
     <row r="320">
-      <c r="B320" s="13"/>
+      <c r="B320" s="16"/>
     </row>
     <row r="321">
-      <c r="B321" s="13"/>
+      <c r="B321" s="16"/>
     </row>
     <row r="322">
-      <c r="B322" s="13"/>
+      <c r="B322" s="16"/>
     </row>
     <row r="323">
-      <c r="B323" s="13"/>
+      <c r="B323" s="16"/>
     </row>
     <row r="324">
-      <c r="B324" s="13"/>
+      <c r="B324" s="16"/>
     </row>
     <row r="325">
-      <c r="B325" s="13"/>
+      <c r="B325" s="16"/>
     </row>
     <row r="326">
-      <c r="B326" s="13"/>
+      <c r="B326" s="16"/>
     </row>
     <row r="327">
-      <c r="B327" s="13"/>
+      <c r="B327" s="16"/>
     </row>
     <row r="328">
-      <c r="B328" s="13"/>
+      <c r="B328" s="16"/>
     </row>
     <row r="329">
-      <c r="B329" s="13"/>
+      <c r="B329" s="16"/>
     </row>
     <row r="330">
-      <c r="B330" s="13"/>
+      <c r="B330" s="16"/>
     </row>
     <row r="331">
-      <c r="B331" s="13"/>
+      <c r="B331" s="16"/>
     </row>
     <row r="332">
-      <c r="B332" s="13"/>
+      <c r="B332" s="16"/>
     </row>
     <row r="333">
-      <c r="B333" s="13"/>
+      <c r="B333" s="16"/>
     </row>
     <row r="334">
-      <c r="B334" s="13"/>
+      <c r="B334" s="16"/>
     </row>
     <row r="335">
-      <c r="B335" s="13"/>
+      <c r="B335" s="16"/>
     </row>
     <row r="336">
-      <c r="B336" s="13"/>
+      <c r="B336" s="16"/>
     </row>
     <row r="337">
-      <c r="B337" s="13"/>
+      <c r="B337" s="16"/>
     </row>
     <row r="338">
-      <c r="B338" s="13"/>
+      <c r="B338" s="16"/>
     </row>
     <row r="339">
-      <c r="B339" s="13"/>
+      <c r="B339" s="16"/>
     </row>
     <row r="340">
-      <c r="B340" s="13"/>
+      <c r="B340" s="16"/>
     </row>
     <row r="341">
-      <c r="B341" s="13"/>
+      <c r="B341" s="16"/>
     </row>
     <row r="342">
-      <c r="B342" s="13"/>
+      <c r="B342" s="16"/>
     </row>
     <row r="343">
-      <c r="B343" s="13"/>
+      <c r="B343" s="16"/>
     </row>
     <row r="344">
-      <c r="B344" s="13"/>
+      <c r="B344" s="16"/>
     </row>
     <row r="345">
-      <c r="B345" s="13"/>
+      <c r="B345" s="16"/>
     </row>
     <row r="346">
-      <c r="B346" s="13"/>
+      <c r="B346" s="16"/>
     </row>
     <row r="347">
-      <c r="B347" s="13"/>
+      <c r="B347" s="16"/>
     </row>
     <row r="348">
-      <c r="B348" s="13"/>
+      <c r="B348" s="16"/>
     </row>
     <row r="349">
-      <c r="B349" s="13"/>
+      <c r="B349" s="16"/>
     </row>
     <row r="350">
-      <c r="B350" s="13"/>
+      <c r="B350" s="16"/>
     </row>
     <row r="351">
-      <c r="B351" s="13"/>
+      <c r="B351" s="16"/>
     </row>
     <row r="352">
-      <c r="B352" s="13"/>
+      <c r="B352" s="16"/>
     </row>
     <row r="353">
-      <c r="B353" s="13"/>
+      <c r="B353" s="16"/>
     </row>
     <row r="354">
-      <c r="B354" s="13"/>
+      <c r="B354" s="16"/>
     </row>
     <row r="355">
-      <c r="B355" s="13"/>
+      <c r="B355" s="16"/>
     </row>
     <row r="356">
-      <c r="B356" s="13"/>
+      <c r="B356" s="16"/>
     </row>
     <row r="357">
-      <c r="B357" s="13"/>
+      <c r="B357" s="16"/>
     </row>
     <row r="358">
-      <c r="B358" s="13"/>
+      <c r="B358" s="16"/>
     </row>
     <row r="359">
-      <c r="B359" s="13"/>
+      <c r="B359" s="16"/>
     </row>
     <row r="360">
-      <c r="B360" s="13"/>
+      <c r="B360" s="16"/>
     </row>
     <row r="361">
-      <c r="B361" s="13"/>
+      <c r="B361" s="16"/>
     </row>
     <row r="362">
-      <c r="B362" s="13"/>
+      <c r="B362" s="16"/>
     </row>
     <row r="363">
-      <c r="B363" s="13"/>
+      <c r="B363" s="16"/>
     </row>
     <row r="364">
-      <c r="B364" s="13"/>
+      <c r="B364" s="16"/>
     </row>
     <row r="365">
-      <c r="B365" s="13"/>
+      <c r="B365" s="16"/>
     </row>
     <row r="366">
-      <c r="B366" s="13"/>
+      <c r="B366" s="16"/>
     </row>
     <row r="367">
-      <c r="B367" s="13"/>
+      <c r="B367" s="16"/>
     </row>
     <row r="368">
-      <c r="B368" s="13"/>
+      <c r="B368" s="16"/>
     </row>
     <row r="369">
-      <c r="B369" s="13"/>
+      <c r="B369" s="16"/>
     </row>
     <row r="370">
-      <c r="B370" s="13"/>
+      <c r="B370" s="16"/>
     </row>
     <row r="371">
-      <c r="B371" s="13"/>
+      <c r="B371" s="16"/>
     </row>
     <row r="372">
-      <c r="B372" s="13"/>
+      <c r="B372" s="16"/>
     </row>
     <row r="373">
-      <c r="B373" s="13"/>
+      <c r="B373" s="16"/>
     </row>
     <row r="374">
-      <c r="B374" s="13"/>
+      <c r="B374" s="16"/>
     </row>
     <row r="375">
-      <c r="B375" s="13"/>
+      <c r="B375" s="16"/>
     </row>
     <row r="376">
-      <c r="B376" s="13"/>
+      <c r="B376" s="16"/>
     </row>
     <row r="377">
-      <c r="B377" s="13"/>
+      <c r="B377" s="16"/>
     </row>
     <row r="378">
-      <c r="B378" s="13"/>
+      <c r="B378" s="16"/>
     </row>
     <row r="379">
-      <c r="B379" s="13"/>
+      <c r="B379" s="16"/>
     </row>
     <row r="380">
-      <c r="B380" s="13"/>
+      <c r="B380" s="16"/>
     </row>
     <row r="381">
-      <c r="B381" s="13"/>
+      <c r="B381" s="16"/>
     </row>
     <row r="382">
-      <c r="B382" s="13"/>
+      <c r="B382" s="16"/>
     </row>
     <row r="383">
-      <c r="B383" s="13"/>
+      <c r="B383" s="16"/>
     </row>
     <row r="384">
-      <c r="B384" s="13"/>
+      <c r="B384" s="16"/>
     </row>
     <row r="385">
-      <c r="B385" s="13"/>
+      <c r="B385" s="16"/>
     </row>
     <row r="386">
-      <c r="B386" s="13"/>
+      <c r="B386" s="16"/>
     </row>
     <row r="387">
-      <c r="B387" s="13"/>
+      <c r="B387" s="16"/>
     </row>
     <row r="388">
-      <c r="B388" s="13"/>
+      <c r="B388" s="16"/>
     </row>
     <row r="389">
-      <c r="B389" s="13"/>
+      <c r="B389" s="16"/>
     </row>
     <row r="390">
-      <c r="B390" s="13"/>
+      <c r="B390" s="16"/>
     </row>
     <row r="391">
-      <c r="B391" s="13"/>
+      <c r="B391" s="16"/>
     </row>
     <row r="392">
-      <c r="B392" s="13"/>
+      <c r="B392" s="16"/>
     </row>
     <row r="393">
-      <c r="B393" s="13"/>
+      <c r="B393" s="16"/>
     </row>
     <row r="394">
-      <c r="B394" s="13"/>
+      <c r="B394" s="16"/>
     </row>
     <row r="395">
-      <c r="B395" s="13"/>
+      <c r="B395" s="16"/>
     </row>
     <row r="396">
-      <c r="B396" s="13"/>
+      <c r="B396" s="16"/>
     </row>
     <row r="397">
-      <c r="B397" s="13"/>
+      <c r="B397" s="16"/>
     </row>
     <row r="398">
-      <c r="B398" s="13"/>
+      <c r="B398" s="16"/>
     </row>
     <row r="399">
-      <c r="B399" s="13"/>
+      <c r="B399" s="16"/>
     </row>
     <row r="400">
-      <c r="B400" s="13"/>
+      <c r="B400" s="16"/>
     </row>
     <row r="401">
-      <c r="B401" s="13"/>
+      <c r="B401" s="16"/>
     </row>
     <row r="402">
-      <c r="B402" s="13"/>
+      <c r="B402" s="16"/>
     </row>
     <row r="403">
-      <c r="B403" s="13"/>
+      <c r="B403" s="16"/>
     </row>
     <row r="404">
-      <c r="B404" s="13"/>
+      <c r="B404" s="16"/>
     </row>
     <row r="405">
-      <c r="B405" s="13"/>
+      <c r="B405" s="16"/>
     </row>
     <row r="406">
-      <c r="B406" s="13"/>
+      <c r="B406" s="16"/>
     </row>
     <row r="407">
-      <c r="B407" s="13"/>
+      <c r="B407" s="16"/>
     </row>
     <row r="408">
-      <c r="B408" s="13"/>
+      <c r="B408" s="16"/>
     </row>
     <row r="409">
-      <c r="B409" s="13"/>
+      <c r="B409" s="16"/>
     </row>
     <row r="410">
-      <c r="B410" s="13"/>
+      <c r="B410" s="16"/>
     </row>
     <row r="411">
-      <c r="B411" s="13"/>
+      <c r="B411" s="16"/>
     </row>
     <row r="412">
-      <c r="B412" s="13"/>
+      <c r="B412" s="16"/>
     </row>
     <row r="413">
-      <c r="B413" s="13"/>
+      <c r="B413" s="16"/>
     </row>
     <row r="414">
-      <c r="B414" s="13"/>
+      <c r="B414" s="16"/>
     </row>
     <row r="415">
-      <c r="B415" s="13"/>
+      <c r="B415" s="16"/>
     </row>
     <row r="416">
-      <c r="B416" s="13"/>
+      <c r="B416" s="16"/>
     </row>
     <row r="417">
-      <c r="B417" s="13"/>
+      <c r="B417" s="16"/>
     </row>
     <row r="418">
-      <c r="B418" s="13"/>
+      <c r="B418" s="16"/>
     </row>
     <row r="419">
-      <c r="B419" s="13"/>
+      <c r="B419" s="16"/>
     </row>
     <row r="420">
-      <c r="B420" s="13"/>
+      <c r="B420" s="16"/>
     </row>
     <row r="421">
-      <c r="B421" s="13"/>
+      <c r="B421" s="16"/>
     </row>
     <row r="422">
-      <c r="B422" s="13"/>
+      <c r="B422" s="16"/>
     </row>
     <row r="423">
-      <c r="B423" s="13"/>
+      <c r="B423" s="16"/>
     </row>
     <row r="424">
-      <c r="B424" s="13"/>
+      <c r="B424" s="16"/>
     </row>
     <row r="425">
-      <c r="B425" s="13"/>
+      <c r="B425" s="16"/>
     </row>
     <row r="426">
-      <c r="B426" s="13"/>
+      <c r="B426" s="16"/>
     </row>
     <row r="427">
-      <c r="B427" s="13"/>
+      <c r="B427" s="16"/>
     </row>
     <row r="428">
-      <c r="B428" s="13"/>
+      <c r="B428" s="16"/>
     </row>
     <row r="429">
-      <c r="B429" s="13"/>
+      <c r="B429" s="16"/>
     </row>
     <row r="430">
-      <c r="B430" s="13"/>
+      <c r="B430" s="16"/>
     </row>
     <row r="431">
-      <c r="B431" s="13"/>
+      <c r="B431" s="16"/>
     </row>
     <row r="432">
-      <c r="B432" s="13"/>
+      <c r="B432" s="16"/>
     </row>
     <row r="433">
-      <c r="B433" s="13"/>
+      <c r="B433" s="16"/>
     </row>
     <row r="434">
-      <c r="B434" s="13"/>
+      <c r="B434" s="16"/>
     </row>
     <row r="435">
-      <c r="B435" s="13"/>
+      <c r="B435" s="16"/>
     </row>
     <row r="436">
-      <c r="B436" s="13"/>
+      <c r="B436" s="16"/>
     </row>
     <row r="437">
-      <c r="B437" s="13"/>
+      <c r="B437" s="16"/>
     </row>
     <row r="438">
-      <c r="B438" s="13"/>
+      <c r="B438" s="16"/>
     </row>
     <row r="439">
-      <c r="B439" s="13"/>
+      <c r="B439" s="16"/>
     </row>
     <row r="440">
-      <c r="B440" s="13"/>
+      <c r="B440" s="16"/>
     </row>
     <row r="441">
-      <c r="B441" s="13"/>
+      <c r="B441" s="16"/>
     </row>
     <row r="442">
-      <c r="B442" s="13"/>
+      <c r="B442" s="16"/>
     </row>
     <row r="443">
-      <c r="B443" s="13"/>
+      <c r="B443" s="16"/>
     </row>
     <row r="444">
-      <c r="B444" s="13"/>
+      <c r="B444" s="16"/>
     </row>
     <row r="445">
-      <c r="B445" s="13"/>
+      <c r="B445" s="16"/>
     </row>
     <row r="446">
-      <c r="B446" s="13"/>
+      <c r="B446" s="16"/>
     </row>
     <row r="447">
-      <c r="B447" s="13"/>
+      <c r="B447" s="16"/>
     </row>
     <row r="448">
-      <c r="B448" s="13"/>
+      <c r="B448" s="16"/>
     </row>
     <row r="449">
-      <c r="B449" s="13"/>
+      <c r="B449" s="16"/>
     </row>
     <row r="450">
-      <c r="B450" s="13"/>
+      <c r="B450" s="16"/>
     </row>
     <row r="451">
-      <c r="B451" s="13"/>
+      <c r="B451" s="16"/>
     </row>
     <row r="452">
-      <c r="B452" s="13"/>
+      <c r="B452" s="16"/>
     </row>
     <row r="453">
-      <c r="B453" s="13"/>
+      <c r="B453" s="16"/>
     </row>
     <row r="454">
-      <c r="B454" s="13"/>
+      <c r="B454" s="16"/>
     </row>
     <row r="455">
-      <c r="B455" s="13"/>
+      <c r="B455" s="16"/>
     </row>
     <row r="456">
-      <c r="B456" s="13"/>
+      <c r="B456" s="16"/>
     </row>
     <row r="457">
-      <c r="B457" s="13"/>
+      <c r="B457" s="16"/>
     </row>
     <row r="458">
-      <c r="B458" s="13"/>
+      <c r="B458" s="16"/>
     </row>
     <row r="459">
-      <c r="B459" s="13"/>
+      <c r="B459" s="16"/>
     </row>
     <row r="460">
-      <c r="B460" s="13"/>
+      <c r="B460" s="16"/>
     </row>
     <row r="461">
-      <c r="B461" s="13"/>
+      <c r="B461" s="16"/>
     </row>
     <row r="462">
-      <c r="B462" s="13"/>
+      <c r="B462" s="16"/>
     </row>
     <row r="463">
-      <c r="B463" s="13"/>
+      <c r="B463" s="16"/>
     </row>
     <row r="464">
-      <c r="B464" s="13"/>
+      <c r="B464" s="16"/>
     </row>
     <row r="465">
-      <c r="B465" s="13"/>
+      <c r="B465" s="16"/>
     </row>
     <row r="466">
-      <c r="B466" s="13"/>
+      <c r="B466" s="16"/>
     </row>
     <row r="467">
-      <c r="B467" s="13"/>
+      <c r="B467" s="16"/>
     </row>
     <row r="468">
-      <c r="B468" s="13"/>
+      <c r="B468" s="16"/>
     </row>
     <row r="469">
-      <c r="B469" s="13"/>
+      <c r="B469" s="16"/>
     </row>
     <row r="470">
-      <c r="B470" s="13"/>
+      <c r="B470" s="16"/>
     </row>
     <row r="471">
-      <c r="B471" s="13"/>
+      <c r="B471" s="16"/>
     </row>
     <row r="472">
-      <c r="B472" s="13"/>
+      <c r="B472" s="16"/>
     </row>
     <row r="473">
-      <c r="B473" s="13"/>
+      <c r="B473" s="16"/>
     </row>
     <row r="474">
-      <c r="B474" s="13"/>
+      <c r="B474" s="16"/>
     </row>
     <row r="475">
-      <c r="B475" s="13"/>
+      <c r="B475" s="16"/>
     </row>
     <row r="476">
-      <c r="B476" s="13"/>
+      <c r="B476" s="16"/>
     </row>
     <row r="477">
-      <c r="B477" s="13"/>
+      <c r="B477" s="16"/>
     </row>
     <row r="478">
-      <c r="B478" s="13"/>
+      <c r="B478" s="16"/>
     </row>
     <row r="479">
-      <c r="B479" s="13"/>
+      <c r="B479" s="16"/>
     </row>
     <row r="480">
-      <c r="B480" s="13"/>
+      <c r="B480" s="16"/>
     </row>
     <row r="481">
-      <c r="B481" s="13"/>
+      <c r="B481" s="16"/>
     </row>
     <row r="482">
-      <c r="B482" s="13"/>
+      <c r="B482" s="16"/>
     </row>
     <row r="483">
-      <c r="B483" s="13"/>
+      <c r="B483" s="16"/>
     </row>
     <row r="484">
-      <c r="B484" s="13"/>
+      <c r="B484" s="16"/>
     </row>
     <row r="485">
-      <c r="B485" s="13"/>
+      <c r="B485" s="16"/>
     </row>
     <row r="486">
-      <c r="B486" s="13"/>
+      <c r="B486" s="16"/>
     </row>
     <row r="487">
-      <c r="B487" s="13"/>
+      <c r="B487" s="16"/>
     </row>
     <row r="488">
-      <c r="B488" s="13"/>
+      <c r="B488" s="16"/>
     </row>
     <row r="489">
-      <c r="B489" s="13"/>
+      <c r="B489" s="16"/>
     </row>
     <row r="490">
-      <c r="B490" s="13"/>
+      <c r="B490" s="16"/>
     </row>
     <row r="491">
-      <c r="B491" s="13"/>
+      <c r="B491" s="16"/>
     </row>
     <row r="492">
-      <c r="B492" s="13"/>
+      <c r="B492" s="16"/>
     </row>
     <row r="493">
-      <c r="B493" s="13"/>
+      <c r="B493" s="16"/>
     </row>
     <row r="494">
-      <c r="B494" s="13"/>
+      <c r="B494" s="16"/>
     </row>
     <row r="495">
-      <c r="B495" s="13"/>
+      <c r="B495" s="16"/>
     </row>
     <row r="496">
-      <c r="B496" s="13"/>
+      <c r="B496" s="16"/>
     </row>
     <row r="497">
-      <c r="B497" s="13"/>
+      <c r="B497" s="16"/>
     </row>
     <row r="498">
-      <c r="B498" s="13"/>
+      <c r="B498" s="16"/>
     </row>
     <row r="499">
-      <c r="B499" s="13"/>
+      <c r="B499" s="16"/>
     </row>
     <row r="500">
-      <c r="B500" s="13"/>
+      <c r="B500" s="16"/>
     </row>
     <row r="501">
-      <c r="B501" s="13"/>
+      <c r="B501" s="16"/>
     </row>
     <row r="502">
-      <c r="B502" s="13"/>
+      <c r="B502" s="16"/>
     </row>
     <row r="503">
-      <c r="B503" s="13"/>
+      <c r="B503" s="16"/>
     </row>
     <row r="504">
-      <c r="B504" s="13"/>
+      <c r="B504" s="16"/>
     </row>
     <row r="505">
-      <c r="B505" s="13"/>
+      <c r="B505" s="16"/>
     </row>
     <row r="506">
-      <c r="B506" s="13"/>
+      <c r="B506" s="16"/>
     </row>
     <row r="507">
-      <c r="B507" s="13"/>
+      <c r="B507" s="16"/>
     </row>
     <row r="508">
-      <c r="B508" s="13"/>
+      <c r="B508" s="16"/>
     </row>
     <row r="509">
-      <c r="B509" s="13"/>
+      <c r="B509" s="16"/>
     </row>
     <row r="510">
-      <c r="B510" s="13"/>
+      <c r="B510" s="16"/>
     </row>
     <row r="511">
-      <c r="B511" s="13"/>
+      <c r="B511" s="16"/>
     </row>
     <row r="512">
-      <c r="B512" s="13"/>
+      <c r="B512" s="16"/>
     </row>
     <row r="513">
-      <c r="B513" s="13"/>
+      <c r="B513" s="16"/>
     </row>
     <row r="514">
-      <c r="B514" s="13"/>
+      <c r="B514" s="16"/>
     </row>
     <row r="515">
-      <c r="B515" s="13"/>
+      <c r="B515" s="16"/>
     </row>
     <row r="516">
-      <c r="B516" s="13"/>
+      <c r="B516" s="16"/>
     </row>
     <row r="517">
-      <c r="B517" s="13"/>
+      <c r="B517" s="16"/>
     </row>
     <row r="518">
-      <c r="B518" s="13"/>
+      <c r="B518" s="16"/>
     </row>
     <row r="519">
-      <c r="B519" s="13"/>
+      <c r="B519" s="16"/>
     </row>
     <row r="520">
-      <c r="B520" s="13"/>
+      <c r="B520" s="16"/>
     </row>
     <row r="521">
-      <c r="B521" s="13"/>
+      <c r="B521" s="16"/>
     </row>
     <row r="522">
-      <c r="B522" s="13"/>
+      <c r="B522" s="16"/>
     </row>
     <row r="523">
-      <c r="B523" s="13"/>
+      <c r="B523" s="16"/>
     </row>
     <row r="524">
-      <c r="B524" s="13"/>
+      <c r="B524" s="16"/>
     </row>
     <row r="525">
-      <c r="B525" s="13"/>
+      <c r="B525" s="16"/>
     </row>
     <row r="526">
-      <c r="B526" s="13"/>
+      <c r="B526" s="16"/>
     </row>
     <row r="527">
-      <c r="B527" s="13"/>
+      <c r="B527" s="16"/>
     </row>
     <row r="528">
-      <c r="B528" s="13"/>
+      <c r="B528" s="16"/>
     </row>
     <row r="529">
-      <c r="B529" s="13"/>
+      <c r="B529" s="16"/>
     </row>
     <row r="530">
-      <c r="B530" s="13"/>
+      <c r="B530" s="16"/>
     </row>
     <row r="531">
-      <c r="B531" s="13"/>
+      <c r="B531" s="16"/>
     </row>
     <row r="532">
-      <c r="B532" s="13"/>
+      <c r="B532" s="16"/>
     </row>
     <row r="533">
-      <c r="B533" s="13"/>
+      <c r="B533" s="16"/>
     </row>
     <row r="534">
-      <c r="B534" s="13"/>
+      <c r="B534" s="16"/>
     </row>
     <row r="535">
-      <c r="B535" s="13"/>
+      <c r="B535" s="16"/>
     </row>
     <row r="536">
-      <c r="B536" s="13"/>
+      <c r="B536" s="16"/>
     </row>
     <row r="537">
-      <c r="B537" s="13"/>
+      <c r="B537" s="16"/>
     </row>
     <row r="538">
-      <c r="B538" s="13"/>
+      <c r="B538" s="16"/>
     </row>
     <row r="539">
-      <c r="B539" s="13"/>
+      <c r="B539" s="16"/>
     </row>
     <row r="540">
-      <c r="B540" s="13"/>
+      <c r="B540" s="16"/>
     </row>
     <row r="541">
-      <c r="B541" s="13"/>
+      <c r="B541" s="16"/>
     </row>
     <row r="542">
-      <c r="B542" s="13"/>
+      <c r="B542" s="16"/>
     </row>
     <row r="543">
-      <c r="B543" s="13"/>
+      <c r="B543" s="16"/>
     </row>
     <row r="544">
-      <c r="B544" s="13"/>
+      <c r="B544" s="16"/>
     </row>
     <row r="545">
-      <c r="B545" s="13"/>
+      <c r="B545" s="16"/>
     </row>
     <row r="546">
-      <c r="B546" s="13"/>
+      <c r="B546" s="16"/>
     </row>
     <row r="547">
-      <c r="B547" s="13"/>
+      <c r="B547" s="16"/>
     </row>
     <row r="548">
-      <c r="B548" s="13"/>
+      <c r="B548" s="16"/>
     </row>
     <row r="549">
-      <c r="B549" s="13"/>
+      <c r="B549" s="16"/>
     </row>
     <row r="550">
-      <c r="B550" s="13"/>
+      <c r="B550" s="16"/>
     </row>
     <row r="551">
-      <c r="B551" s="13"/>
+      <c r="B551" s="16"/>
     </row>
     <row r="552">
-      <c r="B552" s="13"/>
+      <c r="B552" s="16"/>
     </row>
     <row r="553">
-      <c r="B553" s="13"/>
+      <c r="B553" s="16"/>
     </row>
     <row r="554">
-      <c r="B554" s="13"/>
+      <c r="B554" s="16"/>
     </row>
     <row r="555">
-      <c r="B555" s="13"/>
+      <c r="B555" s="16"/>
     </row>
     <row r="556">
-      <c r="B556" s="13"/>
+      <c r="B556" s="16"/>
     </row>
     <row r="557">
-      <c r="B557" s="13"/>
+      <c r="B557" s="16"/>
     </row>
     <row r="558">
-      <c r="B558" s="13"/>
+      <c r="B558" s="16"/>
     </row>
     <row r="559">
-      <c r="B559" s="13"/>
+      <c r="B559" s="16"/>
     </row>
     <row r="560">
-      <c r="B560" s="13"/>
+      <c r="B560" s="16"/>
     </row>
     <row r="561">
-      <c r="B561" s="13"/>
+      <c r="B561" s="16"/>
     </row>
     <row r="562">
-      <c r="B562" s="13"/>
+      <c r="B562" s="16"/>
     </row>
     <row r="563">
-      <c r="B563" s="13"/>
+      <c r="B563" s="16"/>
     </row>
     <row r="564">
-      <c r="B564" s="13"/>
+      <c r="B564" s="16"/>
     </row>
     <row r="565">
-      <c r="B565" s="13"/>
+      <c r="B565" s="16"/>
     </row>
     <row r="566">
-      <c r="B566" s="13"/>
+      <c r="B566" s="16"/>
     </row>
     <row r="567">
-      <c r="B567" s="13"/>
+      <c r="B567" s="16"/>
     </row>
     <row r="568">
-      <c r="B568" s="13"/>
+      <c r="B568" s="16"/>
     </row>
     <row r="569">
-      <c r="B569" s="13"/>
+      <c r="B569" s="16"/>
     </row>
     <row r="570">
-      <c r="B570" s="13"/>
+      <c r="B570" s="16"/>
     </row>
     <row r="571">
-      <c r="B571" s="13"/>
+      <c r="B571" s="16"/>
     </row>
     <row r="572">
-      <c r="B572" s="13"/>
+      <c r="B572" s="16"/>
     </row>
     <row r="573">
-      <c r="B573" s="13"/>
+      <c r="B573" s="16"/>
     </row>
     <row r="574">
-      <c r="B574" s="13"/>
+      <c r="B574" s="16"/>
     </row>
     <row r="575">
-      <c r="B575" s="13"/>
+      <c r="B575" s="16"/>
     </row>
     <row r="576">
-      <c r="B576" s="13"/>
+      <c r="B576" s="16"/>
     </row>
     <row r="577">
-      <c r="B577" s="13"/>
+      <c r="B577" s="16"/>
     </row>
     <row r="578">
-      <c r="B578" s="13"/>
+      <c r="B578" s="16"/>
     </row>
     <row r="579">
-      <c r="B579" s="13"/>
+      <c r="B579" s="16"/>
     </row>
     <row r="580">
-      <c r="B580" s="13"/>
+      <c r="B580" s="16"/>
     </row>
     <row r="581">
-      <c r="B581" s="13"/>
+      <c r="B581" s="16"/>
     </row>
     <row r="582">
-      <c r="B582" s="13"/>
+      <c r="B582" s="16"/>
     </row>
     <row r="583">
-      <c r="B583" s="13"/>
+      <c r="B583" s="16"/>
     </row>
     <row r="584">
-      <c r="B584" s="13"/>
+      <c r="B584" s="16"/>
     </row>
     <row r="585">
-      <c r="B585" s="13"/>
+      <c r="B585" s="16"/>
     </row>
     <row r="586">
-      <c r="B586" s="13"/>
+      <c r="B586" s="16"/>
     </row>
     <row r="587">
-      <c r="B587" s="13"/>
+      <c r="B587" s="16"/>
     </row>
     <row r="588">
-      <c r="B588" s="13"/>
+      <c r="B588" s="16"/>
     </row>
     <row r="589">
-      <c r="B589" s="13"/>
+      <c r="B589" s="16"/>
     </row>
     <row r="590">
-      <c r="B590" s="13"/>
+      <c r="B590" s="16"/>
     </row>
     <row r="591">
-      <c r="B591" s="13"/>
+      <c r="B591" s="16"/>
     </row>
     <row r="592">
-      <c r="B592" s="13"/>
+      <c r="B592" s="16"/>
     </row>
     <row r="593">
-      <c r="B593" s="13"/>
+      <c r="B593" s="16"/>
     </row>
     <row r="594">
-      <c r="B594" s="13"/>
+      <c r="B594" s="16"/>
     </row>
     <row r="595">
-      <c r="B595" s="13"/>
+      <c r="B595" s="16"/>
     </row>
     <row r="596">
-      <c r="B596" s="13"/>
+      <c r="B596" s="16"/>
     </row>
     <row r="597">
-      <c r="B597" s="13"/>
+      <c r="B597" s="16"/>
     </row>
     <row r="598">
-      <c r="B598" s="13"/>
+      <c r="B598" s="16"/>
     </row>
     <row r="599">
-      <c r="B599" s="13"/>
+      <c r="B599" s="16"/>
     </row>
     <row r="600">
-      <c r="B600" s="13"/>
+      <c r="B600" s="16"/>
     </row>
     <row r="601">
-      <c r="B601" s="13"/>
+      <c r="B601" s="16"/>
     </row>
     <row r="602">
-      <c r="B602" s="13"/>
+      <c r="B602" s="16"/>
     </row>
     <row r="603">
-      <c r="B603" s="13"/>
+      <c r="B603" s="16"/>
     </row>
     <row r="604">
-      <c r="B604" s="13"/>
+      <c r="B604" s="16"/>
     </row>
     <row r="605">
-      <c r="B605" s="13"/>
+      <c r="B605" s="16"/>
     </row>
     <row r="606">
-      <c r="B606" s="13"/>
+      <c r="B606" s="16"/>
     </row>
     <row r="607">
-      <c r="B607" s="13"/>
+      <c r="B607" s="16"/>
     </row>
     <row r="608">
-      <c r="B608" s="13"/>
+      <c r="B608" s="16"/>
     </row>
     <row r="609">
-      <c r="B609" s="13"/>
+      <c r="B609" s="16"/>
     </row>
     <row r="610">
-      <c r="B610" s="13"/>
+      <c r="B610" s="16"/>
     </row>
     <row r="611">
-      <c r="B611" s="13"/>
+      <c r="B611" s="16"/>
     </row>
     <row r="612">
-      <c r="B612" s="13"/>
+      <c r="B612" s="16"/>
     </row>
     <row r="613">
-      <c r="B613" s="13"/>
+      <c r="B613" s="16"/>
     </row>
     <row r="614">
-      <c r="B614" s="13"/>
+      <c r="B614" s="16"/>
     </row>
     <row r="615">
-      <c r="B615" s="13"/>
+      <c r="B615" s="16"/>
     </row>
     <row r="616">
-      <c r="B616" s="13"/>
+      <c r="B616" s="16"/>
     </row>
     <row r="617">
-      <c r="B617" s="13"/>
+      <c r="B617" s="16"/>
     </row>
     <row r="618">
-      <c r="B618" s="13"/>
+      <c r="B618" s="16"/>
     </row>
     <row r="619">
-      <c r="B619" s="13"/>
+      <c r="B619" s="16"/>
     </row>
     <row r="620">
-      <c r="B620" s="13"/>
+      <c r="B620" s="16"/>
     </row>
     <row r="621">
-      <c r="B621" s="13"/>
+      <c r="B621" s="16"/>
     </row>
     <row r="622">
-      <c r="B622" s="13"/>
+      <c r="B622" s="16"/>
     </row>
     <row r="623">
-      <c r="B623" s="13"/>
+      <c r="B623" s="16"/>
     </row>
     <row r="624">
-      <c r="B624" s="13"/>
+      <c r="B624" s="16"/>
     </row>
     <row r="625">
-      <c r="B625" s="13"/>
+      <c r="B625" s="16"/>
     </row>
     <row r="626">
-      <c r="B626" s="13"/>
+      <c r="B626" s="16"/>
     </row>
     <row r="627">
-      <c r="B627" s="13"/>
+      <c r="B627" s="16"/>
     </row>
     <row r="628">
-      <c r="B628" s="13"/>
+      <c r="B628" s="16"/>
     </row>
     <row r="629">
-      <c r="B629" s="13"/>
+      <c r="B629" s="16"/>
     </row>
     <row r="630">
-      <c r="B630" s="13"/>
+      <c r="B630" s="16"/>
     </row>
     <row r="631">
-      <c r="B631" s="13"/>
+      <c r="B631" s="16"/>
     </row>
     <row r="632">
-      <c r="B632" s="13"/>
+      <c r="B632" s="16"/>
     </row>
     <row r="633">
-      <c r="B633" s="13"/>
+      <c r="B633" s="16"/>
     </row>
     <row r="634">
-      <c r="B634" s="13"/>
+      <c r="B634" s="16"/>
     </row>
     <row r="635">
-      <c r="B635" s="13"/>
+      <c r="B635" s="16"/>
     </row>
     <row r="636">
-      <c r="B636" s="13"/>
+      <c r="B636" s="16"/>
     </row>
     <row r="637">
-      <c r="B637" s="13"/>
+      <c r="B637" s="16"/>
     </row>
     <row r="638">
-      <c r="B638" s="13"/>
+      <c r="B638" s="16"/>
     </row>
     <row r="639">
-      <c r="B639" s="13"/>
+      <c r="B639" s="16"/>
     </row>
     <row r="640">
-      <c r="B640" s="13"/>
+      <c r="B640" s="16"/>
     </row>
     <row r="641">
-      <c r="B641" s="13"/>
+      <c r="B641" s="16"/>
     </row>
     <row r="642">
-      <c r="B642" s="13"/>
+      <c r="B642" s="16"/>
     </row>
     <row r="643">
-      <c r="B643" s="13"/>
+      <c r="B643" s="16"/>
     </row>
     <row r="644">
-      <c r="B644" s="13"/>
+      <c r="B644" s="16"/>
     </row>
     <row r="645">
-      <c r="B645" s="13"/>
+      <c r="B645" s="16"/>
     </row>
     <row r="646">
-      <c r="B646" s="13"/>
+      <c r="B646" s="16"/>
     </row>
     <row r="647">
-      <c r="B647" s="13"/>
+      <c r="B647" s="16"/>
     </row>
     <row r="648">
-      <c r="B648" s="13"/>
+      <c r="B648" s="16"/>
     </row>
     <row r="649">
-      <c r="B649" s="13"/>
+      <c r="B649" s="16"/>
     </row>
     <row r="650">
-      <c r="B650" s="13"/>
+      <c r="B650" s="16"/>
     </row>
     <row r="651">
-      <c r="B651" s="13"/>
+      <c r="B651" s="16"/>
     </row>
     <row r="652">
-      <c r="B652" s="13"/>
+      <c r="B652" s="16"/>
     </row>
     <row r="653">
-      <c r="B653" s="13"/>
+      <c r="B653" s="16"/>
     </row>
     <row r="654">
-      <c r="B654" s="13"/>
+      <c r="B654" s="16"/>
     </row>
     <row r="655">
-      <c r="B655" s="13"/>
+      <c r="B655" s="16"/>
     </row>
     <row r="656">
-      <c r="B656" s="13"/>
+      <c r="B656" s="16"/>
     </row>
     <row r="657">
-      <c r="B657" s="13"/>
+      <c r="B657" s="16"/>
     </row>
     <row r="658">
-      <c r="B658" s="13"/>
+      <c r="B658" s="16"/>
     </row>
     <row r="659">
-      <c r="B659" s="13"/>
+      <c r="B659" s="16"/>
     </row>
     <row r="660">
-      <c r="B660" s="13"/>
+      <c r="B660" s="16"/>
     </row>
     <row r="661">
-      <c r="B661" s="13"/>
+      <c r="B661" s="16"/>
     </row>
     <row r="662">
-      <c r="B662" s="13"/>
+      <c r="B662" s="16"/>
     </row>
     <row r="663">
-      <c r="B663" s="13"/>
+      <c r="B663" s="16"/>
     </row>
     <row r="664">
-      <c r="B664" s="13"/>
+      <c r="B664" s="16"/>
     </row>
     <row r="665">
-      <c r="B665" s="13"/>
+      <c r="B665" s="16"/>
     </row>
     <row r="666">
-      <c r="B666" s="13"/>
+      <c r="B666" s="16"/>
     </row>
     <row r="667">
-      <c r="B667" s="13"/>
+      <c r="B667" s="16"/>
     </row>
     <row r="668">
-      <c r="B668" s="13"/>
+      <c r="B668" s="16"/>
     </row>
     <row r="669">
-      <c r="B669" s="13"/>
+      <c r="B669" s="16"/>
     </row>
     <row r="670">
-      <c r="B670" s="13"/>
+      <c r="B670" s="16"/>
     </row>
     <row r="671">
-      <c r="B671" s="13"/>
+      <c r="B671" s="16"/>
     </row>
     <row r="672">
-      <c r="B672" s="13"/>
+      <c r="B672" s="16"/>
     </row>
     <row r="673">
-      <c r="B673" s="13"/>
+      <c r="B673" s="16"/>
     </row>
     <row r="674">
-      <c r="B674" s="13"/>
+      <c r="B674" s="16"/>
     </row>
     <row r="675">
-      <c r="B675" s="13"/>
+      <c r="B675" s="16"/>
     </row>
     <row r="676">
-      <c r="B676" s="13"/>
+      <c r="B676" s="16"/>
     </row>
     <row r="677">
-      <c r="B677" s="13"/>
+      <c r="B677" s="16"/>
     </row>
     <row r="678">
-      <c r="B678" s="13"/>
+      <c r="B678" s="16"/>
     </row>
     <row r="679">
-      <c r="B679" s="13"/>
+      <c r="B679" s="16"/>
     </row>
     <row r="680">
-      <c r="B680" s="13"/>
+      <c r="B680" s="16"/>
     </row>
     <row r="681">
-      <c r="B681" s="13"/>
+      <c r="B681" s="16"/>
     </row>
     <row r="682">
-      <c r="B682" s="13"/>
+      <c r="B682" s="16"/>
     </row>
     <row r="683">
-      <c r="B683" s="13"/>
+      <c r="B683" s="16"/>
     </row>
     <row r="684">
-      <c r="B684" s="13"/>
+      <c r="B684" s="16"/>
     </row>
     <row r="685">
-      <c r="B685" s="13"/>
+      <c r="B685" s="16"/>
     </row>
     <row r="686">
-      <c r="B686" s="13"/>
+      <c r="B686" s="16"/>
     </row>
     <row r="687">
-      <c r="B687" s="13"/>
+      <c r="B687" s="16"/>
     </row>
     <row r="688">
-      <c r="B688" s="13"/>
+      <c r="B688" s="16"/>
     </row>
     <row r="689">
-      <c r="B689" s="13"/>
+      <c r="B689" s="16"/>
     </row>
     <row r="690">
-      <c r="B690" s="13"/>
+      <c r="B690" s="16"/>
     </row>
     <row r="691">
-      <c r="B691" s="13"/>
+      <c r="B691" s="16"/>
     </row>
     <row r="692">
-      <c r="B692" s="13"/>
+      <c r="B692" s="16"/>
     </row>
     <row r="693">
-      <c r="B693" s="13"/>
+      <c r="B693" s="16"/>
     </row>
     <row r="694">
-      <c r="B694" s="13"/>
+      <c r="B694" s="16"/>
     </row>
     <row r="695">
-      <c r="B695" s="13"/>
+      <c r="B695" s="16"/>
     </row>
     <row r="696">
-      <c r="B696" s="13"/>
+      <c r="B696" s="16"/>
     </row>
     <row r="697">
-      <c r="B697" s="13"/>
+      <c r="B697" s="16"/>
     </row>
     <row r="698">
-      <c r="B698" s="13"/>
+      <c r="B698" s="16"/>
     </row>
     <row r="699">
-      <c r="B699" s="13"/>
+      <c r="B699" s="16"/>
     </row>
     <row r="700">
-      <c r="B700" s="13"/>
+      <c r="B700" s="16"/>
     </row>
     <row r="701">
-      <c r="B701" s="13"/>
+      <c r="B701" s="16"/>
     </row>
     <row r="702">
-      <c r="B702" s="13"/>
+      <c r="B702" s="16"/>
     </row>
     <row r="703">
-      <c r="B703" s="13"/>
+      <c r="B703" s="16"/>
     </row>
     <row r="704">
-      <c r="B704" s="13"/>
+      <c r="B704" s="16"/>
     </row>
     <row r="705">
-      <c r="B705" s="13"/>
+      <c r="B705" s="16"/>
     </row>
     <row r="706">
-      <c r="B706" s="13"/>
+      <c r="B706" s="16"/>
     </row>
     <row r="707">
-      <c r="B707" s="13"/>
+      <c r="B707" s="16"/>
     </row>
     <row r="708">
-      <c r="B708" s="13"/>
+      <c r="B708" s="16"/>
     </row>
     <row r="709">
-      <c r="B709" s="13"/>
+      <c r="B709" s="16"/>
     </row>
     <row r="710">
-      <c r="B710" s="13"/>
+      <c r="B710" s="16"/>
     </row>
     <row r="711">
-      <c r="B711" s="13"/>
+      <c r="B711" s="16"/>
     </row>
     <row r="712">
-      <c r="B712" s="13"/>
+      <c r="B712" s="16"/>
     </row>
     <row r="713">
-      <c r="B713" s="13"/>
+      <c r="B713" s="16"/>
     </row>
     <row r="714">
-      <c r="B714" s="13"/>
+      <c r="B714" s="16"/>
     </row>
     <row r="715">
-      <c r="B715" s="13"/>
+      <c r="B715" s="16"/>
     </row>
     <row r="716">
-      <c r="B716" s="13"/>
+      <c r="B716" s="16"/>
     </row>
     <row r="717">
-      <c r="B717" s="13"/>
+      <c r="B717" s="16"/>
     </row>
     <row r="718">
-      <c r="B718" s="13"/>
+      <c r="B718" s="16"/>
     </row>
     <row r="719">
-      <c r="B719" s="13"/>
+      <c r="B719" s="16"/>
     </row>
     <row r="720">
-      <c r="B720" s="13"/>
+      <c r="B720" s="16"/>
     </row>
     <row r="721">
-      <c r="B721" s="13"/>
+      <c r="B721" s="16"/>
     </row>
     <row r="722">
-      <c r="B722" s="13"/>
+      <c r="B722" s="16"/>
     </row>
     <row r="723">
-      <c r="B723" s="13"/>
+      <c r="B723" s="16"/>
     </row>
     <row r="724">
-      <c r="B724" s="13"/>
+      <c r="B724" s="16"/>
     </row>
     <row r="725">
-      <c r="B725" s="13"/>
+      <c r="B725" s="16"/>
     </row>
     <row r="726">
-      <c r="B726" s="13"/>
+      <c r="B726" s="16"/>
     </row>
     <row r="727">
-      <c r="B727" s="13"/>
+      <c r="B727" s="16"/>
     </row>
     <row r="728">
-      <c r="B728" s="13"/>
+      <c r="B728" s="16"/>
     </row>
     <row r="729">
-      <c r="B729" s="13"/>
+      <c r="B729" s="16"/>
     </row>
     <row r="730">
-      <c r="B730" s="13"/>
+      <c r="B730" s="16"/>
     </row>
     <row r="731">
-      <c r="B731" s="13"/>
+      <c r="B731" s="16"/>
     </row>
     <row r="732">
-      <c r="B732" s="13"/>
+      <c r="B732" s="16"/>
     </row>
     <row r="733">
-      <c r="B733" s="13"/>
+      <c r="B733" s="16"/>
     </row>
     <row r="734">
-      <c r="B734" s="13"/>
+      <c r="B734" s="16"/>
     </row>
     <row r="735">
-      <c r="B735" s="13"/>
+      <c r="B735" s="16"/>
     </row>
     <row r="736">
-      <c r="B736" s="13"/>
+      <c r="B736" s="16"/>
     </row>
     <row r="737">
-      <c r="B737" s="13"/>
+      <c r="B737" s="16"/>
     </row>
     <row r="738">
-      <c r="B738" s="13"/>
+      <c r="B738" s="16"/>
     </row>
     <row r="739">
-      <c r="B739" s="13"/>
+      <c r="B739" s="16"/>
     </row>
     <row r="740">
-      <c r="B740" s="13"/>
+      <c r="B740" s="16"/>
     </row>
     <row r="741">
-      <c r="B741" s="13"/>
+      <c r="B741" s="16"/>
     </row>
     <row r="742">
-      <c r="B742" s="13"/>
+      <c r="B742" s="16"/>
     </row>
     <row r="743">
-      <c r="B743" s="13"/>
+      <c r="B743" s="16"/>
     </row>
     <row r="744">
-      <c r="B744" s="13"/>
+      <c r="B744" s="16"/>
     </row>
     <row r="745">
-      <c r="B745" s="13"/>
+      <c r="B745" s="16"/>
     </row>
     <row r="746">
-      <c r="B746" s="13"/>
+      <c r="B746" s="16"/>
     </row>
     <row r="747">
-      <c r="B747" s="13"/>
+      <c r="B747" s="16"/>
     </row>
     <row r="748">
-      <c r="B748" s="13"/>
+      <c r="B748" s="16"/>
     </row>
     <row r="749">
-      <c r="B749" s="13"/>
+      <c r="B749" s="16"/>
     </row>
     <row r="750">
-      <c r="B750" s="13"/>
+      <c r="B750" s="16"/>
     </row>
     <row r="751">
-      <c r="B751" s="13"/>
+      <c r="B751" s="16"/>
     </row>
     <row r="752">
-      <c r="B752" s="13"/>
+      <c r="B752" s="16"/>
     </row>
     <row r="753">
-      <c r="B753" s="13"/>
+      <c r="B753" s="16"/>
     </row>
     <row r="754">
-      <c r="B754" s="13"/>
+      <c r="B754" s="16"/>
     </row>
     <row r="755">
-      <c r="B755" s="13"/>
+      <c r="B755" s="16"/>
     </row>
     <row r="756">
-      <c r="B756" s="13"/>
+      <c r="B756" s="16"/>
     </row>
     <row r="757">
-      <c r="B757" s="13"/>
+      <c r="B757" s="16"/>
     </row>
     <row r="758">
-      <c r="B758" s="13"/>
+      <c r="B758" s="16"/>
     </row>
     <row r="759">
-      <c r="B759" s="13"/>
+      <c r="B759" s="16"/>
     </row>
     <row r="760">
-      <c r="B760" s="13"/>
+      <c r="B760" s="16"/>
     </row>
     <row r="761">
-      <c r="B761" s="13"/>
+      <c r="B761" s="16"/>
     </row>
     <row r="762">
-      <c r="B762" s="13"/>
+      <c r="B762" s="16"/>
     </row>
     <row r="763">
-      <c r="B763" s="13"/>
+      <c r="B763" s="16"/>
     </row>
     <row r="764">
-      <c r="B764" s="13"/>
+      <c r="B764" s="16"/>
     </row>
     <row r="765">
-      <c r="B765" s="13"/>
+      <c r="B765" s="16"/>
     </row>
     <row r="766">
-      <c r="B766" s="13"/>
+      <c r="B766" s="16"/>
     </row>
     <row r="767">
-      <c r="B767" s="13"/>
+      <c r="B767" s="16"/>
     </row>
     <row r="768">
-      <c r="B768" s="13"/>
+      <c r="B768" s="16"/>
     </row>
     <row r="769">
-      <c r="B769" s="13"/>
+      <c r="B769" s="16"/>
     </row>
     <row r="770">
-      <c r="B770" s="13"/>
+      <c r="B770" s="16"/>
     </row>
     <row r="771">
-      <c r="B771" s="13"/>
+      <c r="B771" s="16"/>
     </row>
     <row r="772">
-      <c r="B772" s="13"/>
+      <c r="B772" s="16"/>
     </row>
     <row r="773">
-      <c r="B773" s="13"/>
+      <c r="B773" s="16"/>
     </row>
     <row r="774">
-      <c r="B774" s="13"/>
+      <c r="B774" s="16"/>
     </row>
     <row r="775">
-      <c r="B775" s="13"/>
+      <c r="B775" s="16"/>
     </row>
     <row r="776">
-      <c r="B776" s="13"/>
+      <c r="B776" s="16"/>
     </row>
     <row r="777">
-      <c r="B777" s="13"/>
+      <c r="B777" s="16"/>
     </row>
     <row r="778">
-      <c r="B778" s="13"/>
+      <c r="B778" s="16"/>
     </row>
     <row r="779">
-      <c r="B779" s="13"/>
+      <c r="B779" s="16"/>
     </row>
     <row r="780">
-      <c r="B780" s="13"/>
+      <c r="B780" s="16"/>
     </row>
     <row r="781">
-      <c r="B781" s="13"/>
+      <c r="B781" s="16"/>
     </row>
     <row r="782">
-      <c r="B782" s="13"/>
+      <c r="B782" s="16"/>
     </row>
     <row r="783">
-      <c r="B783" s="13"/>
+      <c r="B783" s="16"/>
     </row>
     <row r="784">
-      <c r="B784" s="13"/>
+      <c r="B784" s="16"/>
     </row>
     <row r="785">
-      <c r="B785" s="13"/>
+      <c r="B785" s="16"/>
     </row>
     <row r="786">
-      <c r="B786" s="13"/>
+      <c r="B786" s="16"/>
     </row>
     <row r="787">
-      <c r="B787" s="13"/>
+      <c r="B787" s="16"/>
     </row>
     <row r="788">
-      <c r="B788" s="13"/>
+      <c r="B788" s="16"/>
     </row>
     <row r="789">
-      <c r="B789" s="13"/>
+      <c r="B789" s="16"/>
     </row>
     <row r="790">
-      <c r="B790" s="13"/>
+      <c r="B790" s="16"/>
     </row>
     <row r="791">
-      <c r="B791" s="13"/>
+      <c r="B791" s="16"/>
     </row>
     <row r="792">
-      <c r="B792" s="13"/>
+      <c r="B792" s="16"/>
     </row>
     <row r="793">
-      <c r="B793" s="13"/>
+      <c r="B793" s="16"/>
     </row>
     <row r="794">
-      <c r="B794" s="13"/>
+      <c r="B794" s="16"/>
     </row>
     <row r="795">
-      <c r="B795" s="13"/>
+      <c r="B795" s="16"/>
     </row>
     <row r="796">
-      <c r="B796" s="13"/>
+      <c r="B796" s="16"/>
     </row>
     <row r="797">
-      <c r="B797" s="13"/>
+      <c r="B797" s="16"/>
     </row>
     <row r="798">
-      <c r="B798" s="13"/>
+      <c r="B798" s="16"/>
     </row>
     <row r="799">
-      <c r="B799" s="13"/>
+      <c r="B799" s="16"/>
     </row>
     <row r="800">
-      <c r="B800" s="13"/>
+      <c r="B800" s="16"/>
     </row>
     <row r="801">
-      <c r="B801" s="13"/>
+      <c r="B801" s="16"/>
     </row>
     <row r="802">
-      <c r="B802" s="13"/>
+      <c r="B802" s="16"/>
     </row>
     <row r="803">
-      <c r="B803" s="13"/>
+      <c r="B803" s="16"/>
     </row>
     <row r="804">
-      <c r="B804" s="13"/>
+      <c r="B804" s="16"/>
     </row>
     <row r="805">
-      <c r="B805" s="13"/>
+      <c r="B805" s="16"/>
     </row>
     <row r="806">
-      <c r="B806" s="13"/>
+      <c r="B806" s="16"/>
     </row>
     <row r="807">
-      <c r="B807" s="13"/>
+      <c r="B807" s="16"/>
     </row>
     <row r="808">
-      <c r="B808" s="13"/>
+      <c r="B808" s="16"/>
     </row>
     <row r="809">
-      <c r="B809" s="13"/>
+      <c r="B809" s="16"/>
     </row>
     <row r="810">
-      <c r="B810" s="13"/>
+      <c r="B810" s="16"/>
     </row>
     <row r="811">
-      <c r="B811" s="13"/>
+      <c r="B811" s="16"/>
     </row>
     <row r="812">
-      <c r="B812" s="13"/>
+      <c r="B812" s="16"/>
     </row>
     <row r="813">
-      <c r="B813" s="13"/>
+      <c r="B813" s="16"/>
     </row>
     <row r="814">
-      <c r="B814" s="13"/>
+      <c r="B814" s="16"/>
     </row>
     <row r="815">
-      <c r="B815" s="13"/>
+      <c r="B815" s="16"/>
     </row>
     <row r="816">
-      <c r="B816" s="13"/>
+      <c r="B816" s="16"/>
     </row>
     <row r="817">
-      <c r="B817" s="13"/>
+      <c r="B817" s="16"/>
     </row>
     <row r="818">
-      <c r="B818" s="13"/>
+      <c r="B818" s="16"/>
     </row>
     <row r="819">
-      <c r="B819" s="13"/>
+      <c r="B819" s="16"/>
     </row>
     <row r="820">
-      <c r="B820" s="13"/>
+      <c r="B820" s="16"/>
     </row>
     <row r="821">
-      <c r="B821" s="13"/>
+      <c r="B821" s="16"/>
     </row>
     <row r="822">
-      <c r="B822" s="13"/>
+      <c r="B822" s="16"/>
     </row>
     <row r="823">
-      <c r="B823" s="13"/>
+      <c r="B823" s="16"/>
     </row>
     <row r="824">
-      <c r="B824" s="13"/>
+      <c r="B824" s="16"/>
     </row>
     <row r="825">
-      <c r="B825" s="13"/>
+      <c r="B825" s="16"/>
     </row>
     <row r="826">
-      <c r="B826" s="13"/>
+      <c r="B826" s="16"/>
     </row>
     <row r="827">
-      <c r="B827" s="13"/>
+      <c r="B827" s="16"/>
     </row>
     <row r="828">
-      <c r="B828" s="13"/>
+      <c r="B828" s="16"/>
     </row>
     <row r="829">
-      <c r="B829" s="13"/>
+      <c r="B829" s="16"/>
     </row>
     <row r="830">
-      <c r="B830" s="13"/>
+      <c r="B830" s="16"/>
     </row>
     <row r="831">
-      <c r="B831" s="13"/>
+      <c r="B831" s="16"/>
     </row>
     <row r="832">
-      <c r="B832" s="13"/>
+      <c r="B832" s="16"/>
     </row>
     <row r="833">
-      <c r="B833" s="13"/>
+      <c r="B833" s="16"/>
     </row>
     <row r="834">
-      <c r="B834" s="13"/>
+      <c r="B834" s="16"/>
     </row>
     <row r="835">
-      <c r="B835" s="13"/>
+      <c r="B835" s="16"/>
     </row>
     <row r="836">
-      <c r="B836" s="13"/>
+      <c r="B836" s="16"/>
     </row>
     <row r="837">
-      <c r="B837" s="13"/>
+      <c r="B837" s="16"/>
     </row>
     <row r="838">
-      <c r="B838" s="13"/>
+      <c r="B838" s="16"/>
     </row>
     <row r="839">
-      <c r="B839" s="13"/>
+      <c r="B839" s="16"/>
     </row>
     <row r="840">
-      <c r="B840" s="13"/>
+      <c r="B840" s="16"/>
     </row>
     <row r="841">
-      <c r="B841" s="13"/>
+      <c r="B841" s="16"/>
     </row>
     <row r="842">
-      <c r="B842" s="13"/>
+      <c r="B842" s="16"/>
     </row>
     <row r="843">
-      <c r="B843" s="13"/>
+      <c r="B843" s="16"/>
     </row>
     <row r="844">
-      <c r="B844" s="13"/>
+      <c r="B844" s="16"/>
     </row>
     <row r="845">
-      <c r="B845" s="13"/>
+      <c r="B845" s="16"/>
     </row>
     <row r="846">
-      <c r="B846" s="13"/>
+      <c r="B846" s="16"/>
     </row>
     <row r="847">
-      <c r="B847" s="13"/>
+      <c r="B847" s="16"/>
     </row>
     <row r="848">
-      <c r="B848" s="13"/>
+      <c r="B848" s="16"/>
     </row>
     <row r="849">
-      <c r="B849" s="13"/>
+      <c r="B849" s="16"/>
     </row>
     <row r="850">
-      <c r="B850" s="13"/>
+      <c r="B850" s="16"/>
     </row>
     <row r="851">
-      <c r="B851" s="13"/>
+      <c r="B851" s="16"/>
     </row>
     <row r="852">
-      <c r="B852" s="13"/>
+      <c r="B852" s="16"/>
     </row>
     <row r="853">
-      <c r="B853" s="13"/>
+      <c r="B853" s="16"/>
     </row>
     <row r="854">
-      <c r="B854" s="13"/>
+      <c r="B854" s="16"/>
     </row>
     <row r="855">
-      <c r="B855" s="13"/>
+      <c r="B855" s="16"/>
     </row>
     <row r="856">
-      <c r="B856" s="13"/>
+      <c r="B856" s="16"/>
     </row>
     <row r="857">
-      <c r="B857" s="13"/>
+      <c r="B857" s="16"/>
     </row>
     <row r="858">
-      <c r="B858" s="13"/>
+      <c r="B858" s="16"/>
     </row>
     <row r="859">
-      <c r="B859" s="13"/>
+      <c r="B859" s="16"/>
     </row>
     <row r="860">
-      <c r="B860" s="13"/>
+      <c r="B860" s="16"/>
     </row>
     <row r="861">
-      <c r="B861" s="13"/>
+      <c r="B861" s="16"/>
     </row>
     <row r="862">
-      <c r="B862" s="13"/>
+      <c r="B862" s="16"/>
     </row>
     <row r="863">
-      <c r="B863" s="13"/>
+      <c r="B863" s="16"/>
     </row>
     <row r="864">
-      <c r="B864" s="13"/>
+      <c r="B864" s="16"/>
     </row>
     <row r="865">
-      <c r="B865" s="13"/>
+      <c r="B865" s="16"/>
     </row>
     <row r="866">
-      <c r="B866" s="13"/>
+      <c r="B866" s="16"/>
     </row>
     <row r="867">
-      <c r="B867" s="13"/>
+      <c r="B867" s="16"/>
     </row>
     <row r="868">
-      <c r="B868" s="13"/>
+      <c r="B868" s="16"/>
     </row>
     <row r="869">
-      <c r="B869" s="13"/>
+      <c r="B869" s="16"/>
     </row>
     <row r="870">
-      <c r="B870" s="13"/>
+      <c r="B870" s="16"/>
     </row>
     <row r="871">
-      <c r="B871" s="13"/>
+      <c r="B871" s="16"/>
     </row>
     <row r="872">
-      <c r="B872" s="13"/>
+      <c r="B872" s="16"/>
     </row>
     <row r="873">
-      <c r="B873" s="13"/>
+      <c r="B873" s="16"/>
     </row>
     <row r="874">
-      <c r="B874" s="13"/>
+      <c r="B874" s="16"/>
     </row>
     <row r="875">
-      <c r="B875" s="13"/>
+      <c r="B875" s="16"/>
     </row>
     <row r="876">
-      <c r="B876" s="13"/>
+      <c r="B876" s="16"/>
     </row>
     <row r="877">
-      <c r="B877" s="13"/>
+      <c r="B877" s="16"/>
     </row>
     <row r="878">
-      <c r="B878" s="13"/>
+      <c r="B878" s="16"/>
     </row>
     <row r="879">
-      <c r="B879" s="13"/>
+      <c r="B879" s="16"/>
     </row>
     <row r="880">
-      <c r="B880" s="13"/>
+      <c r="B880" s="16"/>
     </row>
     <row r="881">
-      <c r="B881" s="13"/>
+      <c r="B881" s="16"/>
     </row>
     <row r="882">
-      <c r="B882" s="13"/>
+      <c r="B882" s="16"/>
     </row>
     <row r="883">
-      <c r="B883" s="13"/>
+      <c r="B883" s="16"/>
     </row>
     <row r="884">
-      <c r="B884" s="13"/>
+      <c r="B884" s="16"/>
     </row>
     <row r="885">
-      <c r="B885" s="13"/>
+      <c r="B885" s="16"/>
     </row>
     <row r="886">
-      <c r="B886" s="13"/>
+      <c r="B886" s="16"/>
     </row>
     <row r="887">
-      <c r="B887" s="13"/>
+      <c r="B887" s="16"/>
     </row>
     <row r="888">
-      <c r="B888" s="13"/>
+      <c r="B888" s="16"/>
     </row>
     <row r="889">
-      <c r="B889" s="13"/>
+      <c r="B889" s="16"/>
     </row>
     <row r="890">
-      <c r="B890" s="13"/>
+      <c r="B890" s="16"/>
     </row>
     <row r="891">
-      <c r="B891" s="13"/>
+      <c r="B891" s="16"/>
     </row>
     <row r="892">
-      <c r="B892" s="13"/>
+      <c r="B892" s="16"/>
     </row>
     <row r="893">
-      <c r="B893" s="13"/>
+      <c r="B893" s="16"/>
     </row>
     <row r="894">
-      <c r="B894" s="13"/>
+      <c r="B894" s="16"/>
     </row>
     <row r="895">
-      <c r="B895" s="13"/>
+      <c r="B895" s="16"/>
     </row>
     <row r="896">
-      <c r="B896" s="13"/>
+      <c r="B896" s="16"/>
     </row>
     <row r="897">
-      <c r="B897" s="13"/>
+      <c r="B897" s="16"/>
     </row>
     <row r="898">
-      <c r="B898" s="13"/>
+      <c r="B898" s="16"/>
     </row>
     <row r="899">
-      <c r="B899" s="13"/>
+      <c r="B899" s="16"/>
     </row>
     <row r="900">
-      <c r="B900" s="13"/>
+      <c r="B900" s="16"/>
     </row>
     <row r="901">
-      <c r="B901" s="13"/>
+      <c r="B901" s="16"/>
     </row>
     <row r="902">
-      <c r="B902" s="13"/>
+      <c r="B902" s="16"/>
     </row>
     <row r="903">
-      <c r="B903" s="13"/>
+      <c r="B903" s="16"/>
     </row>
     <row r="904">
-      <c r="B904" s="13"/>
+      <c r="B904" s="16"/>
     </row>
     <row r="905">
-      <c r="B905" s="13"/>
+      <c r="B905" s="16"/>
     </row>
     <row r="906">
-      <c r="B906" s="13"/>
+      <c r="B906" s="16"/>
     </row>
     <row r="907">
-      <c r="B907" s="13"/>
+      <c r="B907" s="16"/>
     </row>
     <row r="908">
-      <c r="B908" s="13"/>
+      <c r="B908" s="16"/>
     </row>
     <row r="909">
-      <c r="B909" s="13"/>
+      <c r="B909" s="16"/>
     </row>
     <row r="910">
-      <c r="B910" s="13"/>
+      <c r="B910" s="16"/>
     </row>
     <row r="911">
-      <c r="B911" s="13"/>
+      <c r="B911" s="16"/>
     </row>
     <row r="912">
-      <c r="B912" s="13"/>
+      <c r="B912" s="16"/>
     </row>
     <row r="913">
-      <c r="B913" s="13"/>
+      <c r="B913" s="16"/>
     </row>
     <row r="914">
-      <c r="B914" s="13"/>
+      <c r="B914" s="16"/>
     </row>
     <row r="915">
-      <c r="B915" s="13"/>
+      <c r="B915" s="16"/>
     </row>
     <row r="916">
-      <c r="B916" s="13"/>
+      <c r="B916" s="16"/>
     </row>
     <row r="917">
-      <c r="B917" s="13"/>
+      <c r="B917" s="16"/>
     </row>
     <row r="918">
-      <c r="B918" s="13"/>
+      <c r="B918" s="16"/>
     </row>
     <row r="919">
-      <c r="B919" s="13"/>
+      <c r="B919" s="16"/>
     </row>
     <row r="920">
-      <c r="B920" s="13"/>
+      <c r="B920" s="16"/>
     </row>
     <row r="921">
-      <c r="B921" s="13"/>
+      <c r="B921" s="16"/>
     </row>
     <row r="922">
-      <c r="B922" s="13"/>
+      <c r="B922" s="16"/>
     </row>
     <row r="923">
-      <c r="B923" s="13"/>
+      <c r="B923" s="16"/>
     </row>
     <row r="924">
-      <c r="B924" s="13"/>
+      <c r="B924" s="16"/>
     </row>
     <row r="925">
-      <c r="B925" s="13"/>
+      <c r="B925" s="16"/>
     </row>
     <row r="926">
-      <c r="B926" s="13"/>
+      <c r="B926" s="16"/>
     </row>
     <row r="927">
-      <c r="B927" s="13"/>
+      <c r="B927" s="16"/>
     </row>
     <row r="928">
-      <c r="B928" s="13"/>
+      <c r="B928" s="16"/>
     </row>
     <row r="929">
-      <c r="B929" s="13"/>
+      <c r="B929" s="16"/>
     </row>
     <row r="930">
-      <c r="B930" s="13"/>
+      <c r="B930" s="16"/>
     </row>
     <row r="931">
-      <c r="B931" s="13"/>
+      <c r="B931" s="16"/>
     </row>
     <row r="932">
-      <c r="B932" s="13"/>
+      <c r="B932" s="16"/>
     </row>
     <row r="933">
-      <c r="B933" s="13"/>
+      <c r="B933" s="16"/>
     </row>
     <row r="934">
-      <c r="B934" s="13"/>
+      <c r="B934" s="16"/>
     </row>
     <row r="935">
-      <c r="B935" s="13"/>
+      <c r="B935" s="16"/>
     </row>
     <row r="936">
-      <c r="B936" s="13"/>
+      <c r="B936" s="16"/>
     </row>
     <row r="937">
-      <c r="B937" s="13"/>
+      <c r="B937" s="16"/>
     </row>
     <row r="938">
-      <c r="B938" s="13"/>
+      <c r="B938" s="16"/>
     </row>
     <row r="939">
-      <c r="B939" s="13"/>
+      <c r="B939" s="16"/>
     </row>
     <row r="940">
-      <c r="B940" s="13"/>
+      <c r="B940" s="16"/>
     </row>
     <row r="941">
-      <c r="B941" s="13"/>
+      <c r="B941" s="16"/>
     </row>
     <row r="942">
-      <c r="B942" s="13"/>
+      <c r="B942" s="16"/>
     </row>
     <row r="943">
-      <c r="B943" s="13"/>
+      <c r="B943" s="16"/>
     </row>
     <row r="944">
-      <c r="B944" s="13"/>
+      <c r="B944" s="16"/>
     </row>
     <row r="945">
-      <c r="B945" s="13"/>
+      <c r="B945" s="16"/>
     </row>
     <row r="946">
-      <c r="B946" s="13"/>
+      <c r="B946" s="16"/>
     </row>
     <row r="947">
-      <c r="B947" s="13"/>
+      <c r="B947" s="16"/>
     </row>
     <row r="948">
-      <c r="B948" s="13"/>
+      <c r="B948" s="16"/>
     </row>
     <row r="949">
-      <c r="B949" s="13"/>
+      <c r="B949" s="16"/>
     </row>
     <row r="950">
-      <c r="B950" s="13"/>
+      <c r="B950" s="16"/>
     </row>
     <row r="951">
-      <c r="B951" s="13"/>
+      <c r="B951" s="16"/>
     </row>
     <row r="952">
-      <c r="B952" s="13"/>
+      <c r="B952" s="16"/>
     </row>
     <row r="953">
-      <c r="B953" s="13"/>
+      <c r="B953" s="16"/>
     </row>
     <row r="954">
-      <c r="B954" s="13"/>
+      <c r="B954" s="16"/>
     </row>
     <row r="955">
-      <c r="B955" s="13"/>
+      <c r="B955" s="16"/>
     </row>
     <row r="956">
-      <c r="B956" s="13"/>
+      <c r="B956" s="16"/>
     </row>
     <row r="957">
-      <c r="B957" s="13"/>
+      <c r="B957" s="16"/>
     </row>
     <row r="958">
-      <c r="B958" s="13"/>
+      <c r="B958" s="16"/>
     </row>
     <row r="959">
-      <c r="B959" s="13"/>
+      <c r="B959" s="16"/>
     </row>
     <row r="960">
-      <c r="B960" s="13"/>
+      <c r="B960" s="16"/>
     </row>
     <row r="961">
-      <c r="B961" s="13"/>
+      <c r="B961" s="16"/>
     </row>
     <row r="962">
-      <c r="B962" s="13"/>
+      <c r="B962" s="16"/>
     </row>
     <row r="963">
-      <c r="B963" s="13"/>
+      <c r="B963" s="16"/>
     </row>
     <row r="964">
-      <c r="B964" s="13"/>
+      <c r="B964" s="16"/>
     </row>
     <row r="965">
-      <c r="B965" s="13"/>
+      <c r="B965" s="16"/>
     </row>
     <row r="966">
-      <c r="B966" s="13"/>
+      <c r="B966" s="16"/>
     </row>
     <row r="967">
-      <c r="B967" s="13"/>
+      <c r="B967" s="16"/>
     </row>
     <row r="968">
-      <c r="B968" s="13"/>
+      <c r="B968" s="16"/>
     </row>
     <row r="969">
-      <c r="B969" s="13"/>
+      <c r="B969" s="16"/>
     </row>
     <row r="970">
-      <c r="B970" s="13"/>
+      <c r="B970" s="16"/>
     </row>
     <row r="971">
-      <c r="B971" s="13"/>
+      <c r="B971" s="16"/>
     </row>
     <row r="972">
-      <c r="B972" s="13"/>
+      <c r="B972" s="16"/>
     </row>
     <row r="973">
-      <c r="B973" s="13"/>
+      <c r="B973" s="16"/>
     </row>
     <row r="974">
-      <c r="B974" s="13"/>
+      <c r="B974" s="16"/>
     </row>
     <row r="975">
-      <c r="B975" s="13"/>
+      <c r="B975" s="16"/>
     </row>
     <row r="976">
-      <c r="B976" s="13"/>
+      <c r="B976" s="16"/>
     </row>
     <row r="977">
-      <c r="B977" s="13"/>
+      <c r="B977" s="16"/>
     </row>
     <row r="978">
-      <c r="B978" s="13"/>
+      <c r="B978" s="16"/>
     </row>
     <row r="979">
-      <c r="B979" s="13"/>
+      <c r="B979" s="16"/>
     </row>
     <row r="980">
-      <c r="B980" s="13"/>
+      <c r="B980" s="16"/>
     </row>
     <row r="981">
-      <c r="B981" s="13"/>
+      <c r="B981" s="16"/>
     </row>
     <row r="982">
-      <c r="B982" s="13"/>
+      <c r="B982" s="16"/>
     </row>
     <row r="983">
-      <c r="B983" s="13"/>
+      <c r="B983" s="16"/>
     </row>
     <row r="984">
-      <c r="B984" s="13"/>
+      <c r="B984" s="16"/>
     </row>
     <row r="985">
-      <c r="B985" s="13"/>
+      <c r="B985" s="16"/>
     </row>
     <row r="986">
-      <c r="B986" s="13"/>
+      <c r="B986" s="16"/>
     </row>
     <row r="987">
-      <c r="B987" s="13"/>
+      <c r="B987" s="16"/>
     </row>
     <row r="988">
-      <c r="B988" s="13"/>
+      <c r="B988" s="16"/>
     </row>
     <row r="989">
-      <c r="B989" s="13"/>
+      <c r="B989" s="16"/>
     </row>
     <row r="990">
-      <c r="B990" s="13"/>
+      <c r="B990" s="16"/>
     </row>
     <row r="991">
-      <c r="B991" s="13"/>
+      <c r="B991" s="16"/>
     </row>
     <row r="992">
-      <c r="B992" s="13"/>
+      <c r="B992" s="16"/>
     </row>
     <row r="993">
-      <c r="B993" s="13"/>
+      <c r="B993" s="16"/>
     </row>
     <row r="994">
-      <c r="B994" s="13"/>
+      <c r="B994" s="16"/>
     </row>
     <row r="995">
-      <c r="B995" s="13"/>
+      <c r="B995" s="16"/>
     </row>
     <row r="996">
-      <c r="B996" s="13"/>
+      <c r="B996" s="16"/>
     </row>
     <row r="997">
-      <c r="B997" s="13"/>
+      <c r="B997" s="16"/>
     </row>
     <row r="998">
-      <c r="B998" s="13"/>
+      <c r="B998" s="16"/>
     </row>
     <row r="999">
-      <c r="B999" s="13"/>
+      <c r="B999" s="16"/>
     </row>
     <row r="1000">
-      <c r="B1000" s="13"/>
+      <c r="B1000" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
